--- a/Spreadsheets/ChartMarkers.xlsx
+++ b/Spreadsheets/ChartMarkers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JDAW/Documents/GitHub/chart_markers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JDAW/Documents/GitHub/chart_markers/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223E3617-7F4A-6E47-85F6-85742816820C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA85410-51D4-6045-87A4-D550E6EBCB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="440" windowWidth="31820" windowHeight="27980" xr2:uid="{2942D8FC-8FE1-3E42-9E19-E1281A9E6C69}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="572">
   <si>
     <t>TestData.01Name</t>
   </si>
@@ -1846,6 +1846,9 @@
   </si>
   <si>
     <t>Error: missing file '/Users/JDAW/Documents/GitHub/chart_markers/ChartMarkers_Excel/HR_Excel.svg'.</t>
+  </si>
+  <si>
+    <t>C0C0C0</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IT</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2053,97 +2056,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2040985862062057</c:v>
+                  <c:v>1.2296649962677739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4130219102585024</c:v>
+                  <c:v>1.618755742164997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6003518273101891</c:v>
+                  <c:v>1.9860367431851549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8113956170059111</c:v>
+                  <c:v>2.4283124649275263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0741529739886544</c:v>
+                  <c:v>2.9029805338793748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5255595211790354</c:v>
+                  <c:v>3.5426244234734536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0510394135957064</c:v>
+                  <c:v>3.7893571201095559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5482240745657236</c:v>
+                  <c:v>4.1799133070777703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1178292227629028</c:v>
+                  <c:v>4.8054365087881692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3903932714099927</c:v>
+                  <c:v>5.135422344819613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1690804813961169</c:v>
+                  <c:v>5.9693673295027638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4366468816630134</c:v>
+                  <c:v>6.6564979599714782</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0237351596028201</c:v>
+                  <c:v>7.0571419235543011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8556533777732884</c:v>
+                  <c:v>7.5559492925897187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2087455076728855</c:v>
+                  <c:v>7.9804895907291851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.4656882763363583</c:v>
+                  <c:v>9.4845149127252366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7476115174597879</c:v>
+                  <c:v>11.121305198641242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.133305064023924</c:v>
+                  <c:v>13.158271012075652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.283695983837134</c:v>
+                  <c:v>14.967343297895287</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.452596574027128</c:v>
+                  <c:v>16.339290842478889</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.432852159908675</c:v>
+                  <c:v>17.884051390487855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.781079449276351</c:v>
+                  <c:v>18.278689772226731</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.75653528049569</c:v>
+                  <c:v>20.608057098828009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.495176694544202</c:v>
+                  <c:v>23.624861429134654</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.30213939561396</c:v>
+                  <c:v>25.19445924955463</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.046687037420512</c:v>
+                  <c:v>28.882540320653188</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.707968212806769</c:v>
+                  <c:v>32.556860824779982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.464436105161838</c:v>
+                  <c:v>33.46318981712664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.064747082378922</c:v>
+                  <c:v>37.876863053063289</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.397348683204598</c:v>
+                  <c:v>40.712488868091675</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.600339928714533</c:v>
+                  <c:v>45.977394006857459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,100 +2158,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>164.68708362760685</c:v>
+                  <c:v>208.03551469662921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.23909657708575</c:v>
+                  <c:v>210.49157065883944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.27411665745552</c:v>
+                  <c:v>214.77383693955352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.23938324653955</c:v>
+                  <c:v>216.01305824864548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.25758525507058</c:v>
+                  <c:v>222.06142332840219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.7646852965199</c:v>
+                  <c:v>226.89551397775435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177.75410112941404</c:v>
+                  <c:v>230.96297780033689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181.95098402633263</c:v>
+                  <c:v>233.06001242506352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185.05535184571818</c:v>
+                  <c:v>231.96402563607472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.25886692407394</c:v>
+                  <c:v>238.18996132838348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.13255813590129</c:v>
+                  <c:v>237.31663456735166</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>193.34504346858313</c:v>
+                  <c:v>242.41069963071351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.48104563123499</c:v>
+                  <c:v>241.783398711925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198.21464829117957</c:v>
+                  <c:v>244.50266789026864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199.98206212203581</c:v>
+                  <c:v>244.69950814530714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>202.89606589770503</c:v>
+                  <c:v>245.47214418562436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.52763950610168</c:v>
+                  <c:v>249.01461767600665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>204.6128879613465</c:v>
+                  <c:v>247.86388673011803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207.25009093146971</c:v>
+                  <c:v>248.86796465380002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.92296635184042</c:v>
+                  <c:v>247.95470729033048</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.7535671615945</c:v>
+                  <c:v>247.22969779083675</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.08899316569736</c:v>
+                  <c:v>245.6378467407641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>208.59790266705951</c:v>
+                  <c:v>245.84106586651882</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>208.16989937260323</c:v>
+                  <c:v>241.99562076120637</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>206.25728918044734</c:v>
+                  <c:v>240.10056456697879</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>203.93771197117553</c:v>
+                  <c:v>236.48945012038649</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200.47929538840367</c:v>
+                  <c:v>232.69517375925054</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>199.35639926279373</c:v>
+                  <c:v>231.80618554643078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.15333682170703</c:v>
+                  <c:v>230.90110953857851</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>192.22965775576282</c:v>
+                  <c:v>227.26451893413531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188.18341981645668</c:v>
+                  <c:v>224.85414484983067</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>186.06348130903584</c:v>
+                  <c:v>222.38928107868247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IT</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2299,97 +2302,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2040985862062057</c:v>
+                  <c:v>1.2296649962677739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4130219102585024</c:v>
+                  <c:v>1.618755742164997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6003518273101891</c:v>
+                  <c:v>1.9860367431851549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8113956170059111</c:v>
+                  <c:v>2.4283124649275263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0741529739886544</c:v>
+                  <c:v>2.9029805338793748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5255595211790354</c:v>
+                  <c:v>3.5426244234734536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0510394135957064</c:v>
+                  <c:v>3.7893571201095559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5482240745657236</c:v>
+                  <c:v>4.1799133070777703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1178292227629028</c:v>
+                  <c:v>4.8054365087881692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3903932714099927</c:v>
+                  <c:v>5.135422344819613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1690804813961169</c:v>
+                  <c:v>5.9693673295027638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4366468816630134</c:v>
+                  <c:v>6.6564979599714782</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0237351596028201</c:v>
+                  <c:v>7.0571419235543011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8556533777732884</c:v>
+                  <c:v>7.5559492925897187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2087455076728855</c:v>
+                  <c:v>7.9804895907291851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.4656882763363583</c:v>
+                  <c:v>9.4845149127252366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7476115174597879</c:v>
+                  <c:v>11.121305198641242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.133305064023924</c:v>
+                  <c:v>13.158271012075652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.283695983837134</c:v>
+                  <c:v>14.967343297895287</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.452596574027128</c:v>
+                  <c:v>16.339290842478889</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.432852159908675</c:v>
+                  <c:v>17.884051390487855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.781079449276351</c:v>
+                  <c:v>18.278689772226731</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.75653528049569</c:v>
+                  <c:v>20.608057098828009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.495176694544202</c:v>
+                  <c:v>23.624861429134654</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.30213939561396</c:v>
+                  <c:v>25.19445924955463</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.046687037420512</c:v>
+                  <c:v>28.882540320653188</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.707968212806769</c:v>
+                  <c:v>32.556860824779982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.464436105161838</c:v>
+                  <c:v>33.46318981712664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.064747082378922</c:v>
+                  <c:v>37.876863053063289</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.397348683204598</c:v>
+                  <c:v>40.712488868091675</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.600339928714533</c:v>
+                  <c:v>45.977394006857459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,100 +2404,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>164.68708362760685</c:v>
+                  <c:v>208.03551469662921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.23909657708575</c:v>
+                  <c:v>210.49157065883944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.27411665745552</c:v>
+                  <c:v>214.77383693955352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.23938324653955</c:v>
+                  <c:v>216.01305824864548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.25758525507058</c:v>
+                  <c:v>222.06142332840219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.7646852965199</c:v>
+                  <c:v>226.89551397775435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177.75410112941404</c:v>
+                  <c:v>230.96297780033689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181.95098402633263</c:v>
+                  <c:v>233.06001242506352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185.05535184571818</c:v>
+                  <c:v>231.96402563607472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.25886692407394</c:v>
+                  <c:v>238.18996132838348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.13255813590129</c:v>
+                  <c:v>237.31663456735166</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>193.34504346858313</c:v>
+                  <c:v>242.41069963071351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.48104563123499</c:v>
+                  <c:v>241.783398711925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198.21464829117957</c:v>
+                  <c:v>244.50266789026864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199.98206212203581</c:v>
+                  <c:v>244.69950814530714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>202.89606589770503</c:v>
+                  <c:v>245.47214418562436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.52763950610168</c:v>
+                  <c:v>249.01461767600665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>204.6128879613465</c:v>
+                  <c:v>247.86388673011803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207.25009093146971</c:v>
+                  <c:v>248.86796465380002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.92296635184042</c:v>
+                  <c:v>247.95470729033048</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.7535671615945</c:v>
+                  <c:v>247.22969779083675</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.08899316569736</c:v>
+                  <c:v>245.6378467407641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>208.59790266705951</c:v>
+                  <c:v>245.84106586651882</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>208.16989937260323</c:v>
+                  <c:v>241.99562076120637</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>206.25728918044734</c:v>
+                  <c:v>240.10056456697879</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>203.93771197117553</c:v>
+                  <c:v>236.48945012038649</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200.47929538840367</c:v>
+                  <c:v>232.69517375925054</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>199.35639926279373</c:v>
+                  <c:v>231.80618554643078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.15333682170703</c:v>
+                  <c:v>230.90110953857851</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>192.22965775576282</c:v>
+                  <c:v>227.26451893413531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188.18341981645668</c:v>
+                  <c:v>224.85414484983067</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>186.06348130903584</c:v>
+                  <c:v>222.38928107868247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IT</c:v>
+                  <c:v>PT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2572,97 +2575,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2040985862062057</c:v>
+                  <c:v>1.2296649962677739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4130219102585024</c:v>
+                  <c:v>1.618755742164997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6003518273101891</c:v>
+                  <c:v>1.9860367431851549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8113956170059111</c:v>
+                  <c:v>2.4283124649275263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0741529739886544</c:v>
+                  <c:v>2.9029805338793748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5255595211790354</c:v>
+                  <c:v>3.5426244234734536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0510394135957064</c:v>
+                  <c:v>3.7893571201095559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5482240745657236</c:v>
+                  <c:v>4.1799133070777703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1178292227629028</c:v>
+                  <c:v>4.8054365087881692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3903932714099927</c:v>
+                  <c:v>5.135422344819613</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1690804813961169</c:v>
+                  <c:v>5.9693673295027638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4366468816630134</c:v>
+                  <c:v>6.6564979599714782</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0237351596028201</c:v>
+                  <c:v>7.0571419235543011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8556533777732884</c:v>
+                  <c:v>7.5559492925897187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2087455076728855</c:v>
+                  <c:v>7.9804895907291851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.4656882763363583</c:v>
+                  <c:v>9.4845149127252366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7476115174597879</c:v>
+                  <c:v>11.121305198641242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.133305064023924</c:v>
+                  <c:v>13.158271012075652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.283695983837134</c:v>
+                  <c:v>14.967343297895287</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.452596574027128</c:v>
+                  <c:v>16.339290842478889</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.432852159908675</c:v>
+                  <c:v>17.884051390487855</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.781079449276351</c:v>
+                  <c:v>18.278689772226731</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.75653528049569</c:v>
+                  <c:v>20.608057098828009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.495176694544202</c:v>
+                  <c:v>23.624861429134654</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.30213939561396</c:v>
+                  <c:v>25.19445924955463</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.046687037420512</c:v>
+                  <c:v>28.882540320653188</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.707968212806769</c:v>
+                  <c:v>32.556860824779982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.464436105161838</c:v>
+                  <c:v>33.46318981712664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.064747082378922</c:v>
+                  <c:v>37.876863053063289</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.397348683204598</c:v>
+                  <c:v>40.712488868091675</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.600339928714533</c:v>
+                  <c:v>45.977394006857459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,100 +2677,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>164.68708362760685</c:v>
+                  <c:v>208.03551469662921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166.23909657708575</c:v>
+                  <c:v>210.49157065883944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.27411665745552</c:v>
+                  <c:v>214.77383693955352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.23938324653955</c:v>
+                  <c:v>216.01305824864548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.25758525507058</c:v>
+                  <c:v>222.06142332840219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.7646852965199</c:v>
+                  <c:v>226.89551397775435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177.75410112941404</c:v>
+                  <c:v>230.96297780033689</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181.95098402633263</c:v>
+                  <c:v>233.06001242506352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185.05535184571818</c:v>
+                  <c:v>231.96402563607472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190.25886692407394</c:v>
+                  <c:v>238.18996132838348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.13255813590129</c:v>
+                  <c:v>237.31663456735166</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>193.34504346858313</c:v>
+                  <c:v>242.41069963071351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.48104563123499</c:v>
+                  <c:v>241.783398711925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198.21464829117957</c:v>
+                  <c:v>244.50266789026864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199.98206212203581</c:v>
+                  <c:v>244.69950814530714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>202.89606589770503</c:v>
+                  <c:v>245.47214418562436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.52763950610168</c:v>
+                  <c:v>249.01461767600665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>204.6128879613465</c:v>
+                  <c:v>247.86388673011803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>207.25009093146971</c:v>
+                  <c:v>248.86796465380002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.92296635184042</c:v>
+                  <c:v>247.95470729033048</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>209.7535671615945</c:v>
+                  <c:v>247.22969779083675</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.08899316569736</c:v>
+                  <c:v>245.6378467407641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>208.59790266705951</c:v>
+                  <c:v>245.84106586651882</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>208.16989937260323</c:v>
+                  <c:v>241.99562076120637</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>206.25728918044734</c:v>
+                  <c:v>240.10056456697879</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>203.93771197117553</c:v>
+                  <c:v>236.48945012038649</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>200.47929538840367</c:v>
+                  <c:v>232.69517375925054</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>199.35639926279373</c:v>
+                  <c:v>231.80618554643078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>195.15333682170703</c:v>
+                  <c:v>230.90110953857851</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>192.22965775576282</c:v>
+                  <c:v>227.26451893413531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>188.18341981645668</c:v>
+                  <c:v>224.85414484983067</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>186.06348130903584</c:v>
+                  <c:v>222.38928107868247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,7 +2791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES</c:v>
+                  <c:v>IE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2818,97 +2821,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2761374678307891</c:v>
+                  <c:v>1.2457001418497928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6127795581453042</c:v>
+                  <c:v>1.6124414363846937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8150257259498428</c:v>
+                  <c:v>2.0278870196723946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0388970240125039</c:v>
+                  <c:v>2.3361062027249622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5165436361896476</c:v>
+                  <c:v>2.5626233868950785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9841348332850228</c:v>
+                  <c:v>3.160828650399587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5490249456242293</c:v>
+                  <c:v>3.7329020399860435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9099851603055455</c:v>
+                  <c:v>4.2791005952798731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5258204715379282</c:v>
+                  <c:v>4.9448788540523392</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1650054692758864</c:v>
+                  <c:v>5.6357328391208004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5904576802344819</c:v>
+                  <c:v>5.9175090312081471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2055254613429875</c:v>
+                  <c:v>6.2875017073862747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5440764088788788</c:v>
+                  <c:v>6.7544195514121226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5422953957767422</c:v>
+                  <c:v>7.3518424000440987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5595761399043564</c:v>
+                  <c:v>7.5602468581857396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8661343661055732</c:v>
+                  <c:v>7.993794310672401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6038357117444129</c:v>
+                  <c:v>9.1688178883964824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8853035599023684</c:v>
+                  <c:v>9.888809536473202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.948052426571744</c:v>
+                  <c:v>11.333153738040412</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.249488781043901</c:v>
+                  <c:v>12.730443483329909</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.268763706186252</c:v>
+                  <c:v>13.742625627472501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.46407727156455</c:v>
+                  <c:v>14.050952808327114</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.018971607497482</c:v>
+                  <c:v>16.322381245908677</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.77505735399285</c:v>
+                  <c:v>18.943938068434079</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.405106244405246</c:v>
+                  <c:v>20.951512360655173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.280278122906843</c:v>
+                  <c:v>22.926439156529462</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.551852727429644</c:v>
+                  <c:v>25.541420206232548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.669422655354438</c:v>
+                  <c:v>26.603962892613865</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.676053234627144</c:v>
+                  <c:v>27.159666213782323</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.147900075526444</c:v>
+                  <c:v>28.53157213159248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.550396279522879</c:v>
+                  <c:v>32.624272147959282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,100 +2923,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>198.80810877201938</c:v>
+                  <c:v>181.37139639284646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>202.1260335039803</c:v>
+                  <c:v>183.23913227447338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.38675202832127</c:v>
+                  <c:v>186.42094903752968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.66836334340289</c:v>
+                  <c:v>190.88346232032833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.12020705809493</c:v>
+                  <c:v>194.78618650882504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.2686733356046</c:v>
+                  <c:v>197.38105236331299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.76546164054412</c:v>
+                  <c:v>198.09911876169406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>217.8867193099131</c:v>
+                  <c:v>202.48686631111497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.66202827036003</c:v>
+                  <c:v>206.90233837098381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.90388487872721</c:v>
+                  <c:v>211.05619066623626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224.27644490020938</c:v>
+                  <c:v>210.56227512042395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223.54873803608569</c:v>
+                  <c:v>214.86208245103191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>225.47798850691987</c:v>
+                  <c:v>215.84741732956917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225.52680324190021</c:v>
+                  <c:v>214.41702983974125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>229.22694265919128</c:v>
+                  <c:v>219.14141548404021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>229.36400447974628</c:v>
+                  <c:v>217.71454859631001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.08983537948333</c:v>
+                  <c:v>216.75725612924262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232.28883760773175</c:v>
+                  <c:v>219.26031242574373</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>231.61050991707569</c:v>
+                  <c:v>219.36318061065523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.3216299296723</c:v>
+                  <c:v>223.62353594062608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>229.20377885881581</c:v>
+                  <c:v>221.3370334771023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>228.92528029226031</c:v>
+                  <c:v>222.6053967598348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.50078685259675</c:v>
+                  <c:v>221.76704552964625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>228.82705978473086</c:v>
+                  <c:v>220.29679488335154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>226.17263483518042</c:v>
+                  <c:v>218.3765282251166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>221.99327567293957</c:v>
+                  <c:v>215.63535374096679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>222.75935111227486</c:v>
+                  <c:v>212.32648128117313</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>217.74361558405727</c:v>
+                  <c:v>211.41425877311536</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>215.50506587865456</c:v>
+                  <c:v>211.52668042157472</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>212.03584638290607</c:v>
+                  <c:v>209.08914584902931</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.56088560680769</c:v>
+                  <c:v>208.87826614198462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>204.5566254694933</c:v>
+                  <c:v>204.3840784791507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,7 +3037,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES</c:v>
+                  <c:v>IE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3064,97 +3067,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2761374678307891</c:v>
+                  <c:v>1.2457001418497928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6127795581453042</c:v>
+                  <c:v>1.6124414363846937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8150257259498428</c:v>
+                  <c:v>2.0278870196723946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0388970240125039</c:v>
+                  <c:v>2.3361062027249622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5165436361896476</c:v>
+                  <c:v>2.5626233868950785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9841348332850228</c:v>
+                  <c:v>3.160828650399587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5490249456242293</c:v>
+                  <c:v>3.7329020399860435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9099851603055455</c:v>
+                  <c:v>4.2791005952798731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5258204715379282</c:v>
+                  <c:v>4.9448788540523392</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1650054692758864</c:v>
+                  <c:v>5.6357328391208004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5904576802344819</c:v>
+                  <c:v>5.9175090312081471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2055254613429875</c:v>
+                  <c:v>6.2875017073862747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5440764088788788</c:v>
+                  <c:v>6.7544195514121226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5422953957767422</c:v>
+                  <c:v>7.3518424000440987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5595761399043564</c:v>
+                  <c:v>7.5602468581857396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8661343661055732</c:v>
+                  <c:v>7.993794310672401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6038357117444129</c:v>
+                  <c:v>9.1688178883964824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8853035599023684</c:v>
+                  <c:v>9.888809536473202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.948052426571744</c:v>
+                  <c:v>11.333153738040412</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.249488781043901</c:v>
+                  <c:v>12.730443483329909</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.268763706186252</c:v>
+                  <c:v>13.742625627472501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.46407727156455</c:v>
+                  <c:v>14.050952808327114</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.018971607497482</c:v>
+                  <c:v>16.322381245908677</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.77505735399285</c:v>
+                  <c:v>18.943938068434079</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.405106244405246</c:v>
+                  <c:v>20.951512360655173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.280278122906843</c:v>
+                  <c:v>22.926439156529462</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.551852727429644</c:v>
+                  <c:v>25.541420206232548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.669422655354438</c:v>
+                  <c:v>26.603962892613865</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.676053234627144</c:v>
+                  <c:v>27.159666213782323</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.147900075526444</c:v>
+                  <c:v>28.53157213159248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.550396279522879</c:v>
+                  <c:v>32.624272147959282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,100 +3169,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>198.80810877201938</c:v>
+                  <c:v>181.37139639284646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>202.1260335039803</c:v>
+                  <c:v>183.23913227447338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.38675202832127</c:v>
+                  <c:v>186.42094903752968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.66836334340289</c:v>
+                  <c:v>190.88346232032833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.12020705809493</c:v>
+                  <c:v>194.78618650882504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.2686733356046</c:v>
+                  <c:v>197.38105236331299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.76546164054412</c:v>
+                  <c:v>198.09911876169406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>217.8867193099131</c:v>
+                  <c:v>202.48686631111497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.66202827036003</c:v>
+                  <c:v>206.90233837098381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.90388487872721</c:v>
+                  <c:v>211.05619066623626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224.27644490020938</c:v>
+                  <c:v>210.56227512042395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223.54873803608569</c:v>
+                  <c:v>214.86208245103191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>225.47798850691987</c:v>
+                  <c:v>215.84741732956917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225.52680324190021</c:v>
+                  <c:v>214.41702983974125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>229.22694265919128</c:v>
+                  <c:v>219.14141548404021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>229.36400447974628</c:v>
+                  <c:v>217.71454859631001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.08983537948333</c:v>
+                  <c:v>216.75725612924262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232.28883760773175</c:v>
+                  <c:v>219.26031242574373</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>231.61050991707569</c:v>
+                  <c:v>219.36318061065523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.3216299296723</c:v>
+                  <c:v>223.62353594062608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>229.20377885881581</c:v>
+                  <c:v>221.3370334771023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>228.92528029226031</c:v>
+                  <c:v>222.6053967598348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.50078685259675</c:v>
+                  <c:v>221.76704552964625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>228.82705978473086</c:v>
+                  <c:v>220.29679488335154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>226.17263483518042</c:v>
+                  <c:v>218.3765282251166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>221.99327567293957</c:v>
+                  <c:v>215.63535374096679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>222.75935111227486</c:v>
+                  <c:v>212.32648128117313</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>217.74361558405727</c:v>
+                  <c:v>211.41425877311536</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>215.50506587865456</c:v>
+                  <c:v>211.52668042157472</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>212.03584638290607</c:v>
+                  <c:v>209.08914584902931</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.56088560680769</c:v>
+                  <c:v>208.87826614198462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>204.5566254694933</c:v>
+                  <c:v>204.3840784791507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,7 +3283,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ES</c:v>
+                  <c:v>IE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3337,97 +3340,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2761374678307891</c:v>
+                  <c:v>1.2457001418497928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6127795581453042</c:v>
+                  <c:v>1.6124414363846937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8150257259498428</c:v>
+                  <c:v>2.0278870196723946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0388970240125039</c:v>
+                  <c:v>2.3361062027249622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5165436361896476</c:v>
+                  <c:v>2.5626233868950785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9841348332850228</c:v>
+                  <c:v>3.160828650399587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5490249456242293</c:v>
+                  <c:v>3.7329020399860435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9099851603055455</c:v>
+                  <c:v>4.2791005952798731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5258204715379282</c:v>
+                  <c:v>4.9448788540523392</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1650054692758864</c:v>
+                  <c:v>5.6357328391208004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5904576802344819</c:v>
+                  <c:v>5.9175090312081471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2055254613429875</c:v>
+                  <c:v>6.2875017073862747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5440764088788788</c:v>
+                  <c:v>6.7544195514121226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5422953957767422</c:v>
+                  <c:v>7.3518424000440987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5595761399043564</c:v>
+                  <c:v>7.5602468581857396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8661343661055732</c:v>
+                  <c:v>7.993794310672401</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6038357117444129</c:v>
+                  <c:v>9.1688178883964824</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.8853035599023684</c:v>
+                  <c:v>9.888809536473202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.948052426571744</c:v>
+                  <c:v>11.333153738040412</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.249488781043901</c:v>
+                  <c:v>12.730443483329909</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.268763706186252</c:v>
+                  <c:v>13.742625627472501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.46407727156455</c:v>
+                  <c:v>14.050952808327114</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.018971607497482</c:v>
+                  <c:v>16.322381245908677</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.77505735399285</c:v>
+                  <c:v>18.943938068434079</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.405106244405246</c:v>
+                  <c:v>20.951512360655173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.280278122906843</c:v>
+                  <c:v>22.926439156529462</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.551852727429644</c:v>
+                  <c:v>25.541420206232548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.669422655354438</c:v>
+                  <c:v>26.603962892613865</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.676053234627144</c:v>
+                  <c:v>27.159666213782323</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.147900075526444</c:v>
+                  <c:v>28.53157213159248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>36.550396279522879</c:v>
+                  <c:v>32.624272147959282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,100 +3442,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>198.80810877201938</c:v>
+                  <c:v>181.37139639284646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>202.1260335039803</c:v>
+                  <c:v>183.23913227447338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.38675202832127</c:v>
+                  <c:v>186.42094903752968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.66836334340289</c:v>
+                  <c:v>190.88346232032833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>210.12020705809493</c:v>
+                  <c:v>194.78618650882504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213.2686733356046</c:v>
+                  <c:v>197.38105236331299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.76546164054412</c:v>
+                  <c:v>198.09911876169406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>217.8867193099131</c:v>
+                  <c:v>202.48686631111497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>219.66202827036003</c:v>
+                  <c:v>206.90233837098381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.90388487872721</c:v>
+                  <c:v>211.05619066623626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224.27644490020938</c:v>
+                  <c:v>210.56227512042395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223.54873803608569</c:v>
+                  <c:v>214.86208245103191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>225.47798850691987</c:v>
+                  <c:v>215.84741732956917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225.52680324190021</c:v>
+                  <c:v>214.41702983974125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>229.22694265919128</c:v>
+                  <c:v>219.14141548404021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>229.36400447974628</c:v>
+                  <c:v>217.71454859631001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.08983537948333</c:v>
+                  <c:v>216.75725612924262</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>232.28883760773175</c:v>
+                  <c:v>219.26031242574373</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>231.61050991707569</c:v>
+                  <c:v>219.36318061065523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.3216299296723</c:v>
+                  <c:v>223.62353594062608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>229.20377885881581</c:v>
+                  <c:v>221.3370334771023</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>228.92528029226031</c:v>
+                  <c:v>222.6053967598348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.50078685259675</c:v>
+                  <c:v>221.76704552964625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>228.82705978473086</c:v>
+                  <c:v>220.29679488335154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>226.17263483518042</c:v>
+                  <c:v>218.3765282251166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>221.99327567293957</c:v>
+                  <c:v>215.63535374096679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>222.75935111227486</c:v>
+                  <c:v>212.32648128117313</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>217.74361558405727</c:v>
+                  <c:v>211.41425877311536</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>215.50506587865456</c:v>
+                  <c:v>211.52668042157472</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>212.03584638290607</c:v>
+                  <c:v>209.08914584902931</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.56088560680769</c:v>
+                  <c:v>208.87826614198462</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>204.5566254694933</c:v>
+                  <c:v>204.3840784791507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,7 +3556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NL</c:v>
+                  <c:v>SK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3583,97 +3586,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2904096362938051</c:v>
+                  <c:v>1.3385353143718997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4930746973604851</c:v>
+                  <c:v>1.5300089426387358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8789713743845771</c:v>
+                  <c:v>1.7436794343658948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0845115646270109</c:v>
+                  <c:v>2.1215947604470426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3430222756947994</c:v>
+                  <c:v>2.4407678027156692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6200615973888426</c:v>
+                  <c:v>2.9468004244810242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2209376247457557</c:v>
+                  <c:v>3.1437921449289963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8933151131265755</c:v>
+                  <c:v>3.5448408660406887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.141595720020951</c:v>
+                  <c:v>3.9961504433840389</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.674393482824498</c:v>
+                  <c:v>4.5482177172274918</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3637616949641895</c:v>
+                  <c:v>5.0488312031740286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1153848129850568</c:v>
+                  <c:v>5.4725752093181743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2479575501164213</c:v>
+                  <c:v>6.1013053220788889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8930322483599946</c:v>
+                  <c:v>6.9590511967918207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8659707389434637</c:v>
+                  <c:v>7.8368054813713481</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.569751607002214</c:v>
+                  <c:v>8.5304275230259776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.151304277479841</c:v>
+                  <c:v>9.8172799808506213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.683764353420582</c:v>
+                  <c:v>11.500590830997149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.426587693725498</c:v>
+                  <c:v>11.795637419280343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.249292524859289</c:v>
+                  <c:v>12.282120437804066</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.014217957921534</c:v>
+                  <c:v>12.547389469795901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.240384592984686</c:v>
+                  <c:v>13.84049649337995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.568473027267256</c:v>
+                  <c:v>14.7652056926442</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.44727144776229</c:v>
+                  <c:v>16.90069504033864</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.425487543741028</c:v>
+                  <c:v>17.726816633451534</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.940042561045644</c:v>
+                  <c:v>20.056240819849428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.906271053099537</c:v>
+                  <c:v>20.528143653249732</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.28526729663038</c:v>
+                  <c:v>20.993482975774477</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.924950222342744</c:v>
+                  <c:v>24.652129983794719</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.885379460583721</c:v>
+                  <c:v>27.574179676711466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.387304791494145</c:v>
+                  <c:v>29.739605371973024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,100 +3688,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>166.04054189520991</c:v>
+                  <c:v>198.15514824046753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.89555786410781</c:v>
+                  <c:v>201.18001361794435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.13343507838593</c:v>
+                  <c:v>203.09345981780166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.44265442611217</c:v>
+                  <c:v>206.079050888273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174.05809235547835</c:v>
+                  <c:v>207.48430343857856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.88544937703708</c:v>
+                  <c:v>213.28817139160077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.53902347937611</c:v>
+                  <c:v>216.18720556764379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184.02230133246783</c:v>
+                  <c:v>219.00426710172303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.69976337093814</c:v>
+                  <c:v>221.29558527665617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.49124867086755</c:v>
+                  <c:v>222.01301198589664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193.92569185489435</c:v>
+                  <c:v>225.67872724381431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197.58171953505791</c:v>
+                  <c:v>228.11315617204923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201.20614046907315</c:v>
+                  <c:v>233.00152248279329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>206.32488122238345</c:v>
+                  <c:v>233.51290258772727</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210.17478749926977</c:v>
+                  <c:v>236.45885217532461</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>211.92697193740082</c:v>
+                  <c:v>240.49202842249218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>212.35150292177468</c:v>
+                  <c:v>241.25628649721423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>212.83150531121268</c:v>
+                  <c:v>242.99939063958027</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>213.60076237186894</c:v>
+                  <c:v>246.83435741414362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>214.36612699926857</c:v>
+                  <c:v>246.49171921687821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>215.63135669511158</c:v>
+                  <c:v>246.32975734904051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>212.74738579397484</c:v>
+                  <c:v>246.18593759200073</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214.58037265409445</c:v>
+                  <c:v>248.28947756895386</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>210.16652281303126</c:v>
+                  <c:v>246.02163471354774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.10602321145487</c:v>
+                  <c:v>248.68121526046315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205.49999203961903</c:v>
+                  <c:v>247.19979352308843</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205.45793432639428</c:v>
+                  <c:v>247.23218850523284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>203.32371006115673</c:v>
+                  <c:v>246.59912620307185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200.2612600284626</c:v>
+                  <c:v>244.52572324918486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>197.2133965740525</c:v>
+                  <c:v>244.12077379108962</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>196.73516459086676</c:v>
+                  <c:v>243.02878229404143</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>197.60567410871033</c:v>
+                  <c:v>239.16010213741441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3799,7 +3802,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NL</c:v>
+                  <c:v>SK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3829,97 +3832,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2904096362938051</c:v>
+                  <c:v>1.3385353143718997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4930746973604851</c:v>
+                  <c:v>1.5300089426387358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8789713743845771</c:v>
+                  <c:v>1.7436794343658948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0845115646270109</c:v>
+                  <c:v>2.1215947604470426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3430222756947994</c:v>
+                  <c:v>2.4407678027156692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6200615973888426</c:v>
+                  <c:v>2.9468004244810242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2209376247457557</c:v>
+                  <c:v>3.1437921449289963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8933151131265755</c:v>
+                  <c:v>3.5448408660406887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.141595720020951</c:v>
+                  <c:v>3.9961504433840389</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.674393482824498</c:v>
+                  <c:v>4.5482177172274918</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3637616949641895</c:v>
+                  <c:v>5.0488312031740286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1153848129850568</c:v>
+                  <c:v>5.4725752093181743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2479575501164213</c:v>
+                  <c:v>6.1013053220788889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8930322483599946</c:v>
+                  <c:v>6.9590511967918207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8659707389434637</c:v>
+                  <c:v>7.8368054813713481</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.569751607002214</c:v>
+                  <c:v>8.5304275230259776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.151304277479841</c:v>
+                  <c:v>9.8172799808506213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.683764353420582</c:v>
+                  <c:v>11.500590830997149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.426587693725498</c:v>
+                  <c:v>11.795637419280343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.249292524859289</c:v>
+                  <c:v>12.282120437804066</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.014217957921534</c:v>
+                  <c:v>12.547389469795901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.240384592984686</c:v>
+                  <c:v>13.84049649337995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.568473027267256</c:v>
+                  <c:v>14.7652056926442</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.44727144776229</c:v>
+                  <c:v>16.90069504033864</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.425487543741028</c:v>
+                  <c:v>17.726816633451534</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.940042561045644</c:v>
+                  <c:v>20.056240819849428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.906271053099537</c:v>
+                  <c:v>20.528143653249732</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.28526729663038</c:v>
+                  <c:v>20.993482975774477</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.924950222342744</c:v>
+                  <c:v>24.652129983794719</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.885379460583721</c:v>
+                  <c:v>27.574179676711466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.387304791494145</c:v>
+                  <c:v>29.739605371973024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,100 +3934,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>166.04054189520991</c:v>
+                  <c:v>198.15514824046753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.89555786410781</c:v>
+                  <c:v>201.18001361794435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.13343507838593</c:v>
+                  <c:v>203.09345981780166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.44265442611217</c:v>
+                  <c:v>206.079050888273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174.05809235547835</c:v>
+                  <c:v>207.48430343857856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.88544937703708</c:v>
+                  <c:v>213.28817139160077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.53902347937611</c:v>
+                  <c:v>216.18720556764379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184.02230133246783</c:v>
+                  <c:v>219.00426710172303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.69976337093814</c:v>
+                  <c:v>221.29558527665617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.49124867086755</c:v>
+                  <c:v>222.01301198589664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193.92569185489435</c:v>
+                  <c:v>225.67872724381431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197.58171953505791</c:v>
+                  <c:v>228.11315617204923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201.20614046907315</c:v>
+                  <c:v>233.00152248279329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>206.32488122238345</c:v>
+                  <c:v>233.51290258772727</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210.17478749926977</c:v>
+                  <c:v>236.45885217532461</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>211.92697193740082</c:v>
+                  <c:v>240.49202842249218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>212.35150292177468</c:v>
+                  <c:v>241.25628649721423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>212.83150531121268</c:v>
+                  <c:v>242.99939063958027</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>213.60076237186894</c:v>
+                  <c:v>246.83435741414362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>214.36612699926857</c:v>
+                  <c:v>246.49171921687821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>215.63135669511158</c:v>
+                  <c:v>246.32975734904051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>212.74738579397484</c:v>
+                  <c:v>246.18593759200073</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214.58037265409445</c:v>
+                  <c:v>248.28947756895386</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>210.16652281303126</c:v>
+                  <c:v>246.02163471354774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.10602321145487</c:v>
+                  <c:v>248.68121526046315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205.49999203961903</c:v>
+                  <c:v>247.19979352308843</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205.45793432639428</c:v>
+                  <c:v>247.23218850523284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>203.32371006115673</c:v>
+                  <c:v>246.59912620307185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200.2612600284626</c:v>
+                  <c:v>244.52572324918486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>197.2133965740525</c:v>
+                  <c:v>244.12077379108962</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>196.73516459086676</c:v>
+                  <c:v>243.02878229404143</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>197.60567410871033</c:v>
+                  <c:v>239.16010213741441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4045,7 +4048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NL</c:v>
+                  <c:v>SK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4104,97 +4107,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2904096362938051</c:v>
+                  <c:v>1.3385353143718997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4930746973604851</c:v>
+                  <c:v>1.5300089426387358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8789713743845771</c:v>
+                  <c:v>1.7436794343658948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0845115646270109</c:v>
+                  <c:v>2.1215947604470426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3430222756947994</c:v>
+                  <c:v>2.4407678027156692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6200615973888426</c:v>
+                  <c:v>2.9468004244810242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2209376247457557</c:v>
+                  <c:v>3.1437921449289963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8933151131265755</c:v>
+                  <c:v>3.5448408660406887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.141595720020951</c:v>
+                  <c:v>3.9961504433840389</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.674393482824498</c:v>
+                  <c:v>4.5482177172274918</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3637616949641895</c:v>
+                  <c:v>5.0488312031740286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1153848129850568</c:v>
+                  <c:v>5.4725752093181743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2479575501164213</c:v>
+                  <c:v>6.1013053220788889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8930322483599946</c:v>
+                  <c:v>6.9590511967918207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8659707389434637</c:v>
+                  <c:v>7.8368054813713481</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.569751607002214</c:v>
+                  <c:v>8.5304275230259776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.151304277479841</c:v>
+                  <c:v>9.8172799808506213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.683764353420582</c:v>
+                  <c:v>11.500590830997149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.426587693725498</c:v>
+                  <c:v>11.795637419280343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.249292524859289</c:v>
+                  <c:v>12.282120437804066</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.014217957921534</c:v>
+                  <c:v>12.547389469795901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.240384592984686</c:v>
+                  <c:v>13.84049649337995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.568473027267256</c:v>
+                  <c:v>14.7652056926442</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.44727144776229</c:v>
+                  <c:v>16.90069504033864</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.425487543741028</c:v>
+                  <c:v>17.726816633451534</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.940042561045644</c:v>
+                  <c:v>20.056240819849428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.906271053099537</c:v>
+                  <c:v>20.528143653249732</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.28526729663038</c:v>
+                  <c:v>20.993482975774477</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.924950222342744</c:v>
+                  <c:v>24.652129983794719</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.885379460583721</c:v>
+                  <c:v>27.574179676711466</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.387304791494145</c:v>
+                  <c:v>29.739605371973024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4206,100 +4209,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>166.04054189520991</c:v>
+                  <c:v>198.15514824046753</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167.89555786410781</c:v>
+                  <c:v>201.18001361794435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.13343507838593</c:v>
+                  <c:v>203.09345981780166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172.44265442611217</c:v>
+                  <c:v>206.079050888273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174.05809235547835</c:v>
+                  <c:v>207.48430343857856</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.88544937703708</c:v>
+                  <c:v>213.28817139160077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.53902347937611</c:v>
+                  <c:v>216.18720556764379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184.02230133246783</c:v>
+                  <c:v>219.00426710172303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.69976337093814</c:v>
+                  <c:v>221.29558527665617</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.49124867086755</c:v>
+                  <c:v>222.01301198589664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193.92569185489435</c:v>
+                  <c:v>225.67872724381431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197.58171953505791</c:v>
+                  <c:v>228.11315617204923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>201.20614046907315</c:v>
+                  <c:v>233.00152248279329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>206.32488122238345</c:v>
+                  <c:v>233.51290258772727</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210.17478749926977</c:v>
+                  <c:v>236.45885217532461</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>211.92697193740082</c:v>
+                  <c:v>240.49202842249218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>212.35150292177468</c:v>
+                  <c:v>241.25628649721423</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>212.83150531121268</c:v>
+                  <c:v>242.99939063958027</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>213.60076237186894</c:v>
+                  <c:v>246.83435741414362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>214.36612699926857</c:v>
+                  <c:v>246.49171921687821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>215.63135669511158</c:v>
+                  <c:v>246.32975734904051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>212.74738579397484</c:v>
+                  <c:v>246.18593759200073</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214.58037265409445</c:v>
+                  <c:v>248.28947756895386</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>210.16652281303126</c:v>
+                  <c:v>246.02163471354774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>210.10602321145487</c:v>
+                  <c:v>248.68121526046315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>205.49999203961903</c:v>
+                  <c:v>247.19979352308843</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205.45793432639428</c:v>
+                  <c:v>247.23218850523284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>203.32371006115673</c:v>
+                  <c:v>246.59912620307185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>200.2612600284626</c:v>
+                  <c:v>244.52572324918486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>197.2133965740525</c:v>
+                  <c:v>244.12077379108962</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>196.73516459086676</c:v>
+                  <c:v>243.02878229404143</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>197.60567410871033</c:v>
+                  <c:v>239.16010213741441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4320,7 +4323,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BE</c:v>
+                  <c:v>SI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4350,97 +4353,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1893575293120395</c:v>
+                  <c:v>1.33278346236484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3712546190392481</c:v>
+                  <c:v>1.7148614406288727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5650762015515101</c:v>
+                  <c:v>2.0238599228566687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7995523593754359</c:v>
+                  <c:v>2.4858753053911395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1458309844293959</c:v>
+                  <c:v>2.8375155890795241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5545928198926715</c:v>
+                  <c:v>3.4734498939297165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8796822582716328</c:v>
+                  <c:v>3.7487342330412163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3313516641824421</c:v>
+                  <c:v>4.5132334905565017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.052524765355968</c:v>
+                  <c:v>4.924508600259518</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8738176564213793</c:v>
+                  <c:v>5.3190393613623002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4490300444130773</c:v>
+                  <c:v>5.9203563698068224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5018841103010478</c:v>
+                  <c:v>6.2475577333538199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7355506266086032</c:v>
+                  <c:v>6.6505087938588181</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9668248836721656</c:v>
+                  <c:v>7.663485242589128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0174611411098979</c:v>
+                  <c:v>8.5951664452981316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.017344002012498</c:v>
+                  <c:v>8.93371625856207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.724391435736431</c:v>
+                  <c:v>9.1602258996545807</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.469731957347086</c:v>
+                  <c:v>10.269646109001929</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.862241413683087</c:v>
+                  <c:v>10.535622991149152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.70941896099345</c:v>
+                  <c:v>10.868104776170764</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.374161273347131</c:v>
+                  <c:v>12.206034101949607</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.262397009578962</c:v>
+                  <c:v>13.438784171846006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.489087194711061</c:v>
+                  <c:v>14.779733874325359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.201682725776735</c:v>
+                  <c:v>15.613995244429113</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.487993420210032</c:v>
+                  <c:v>17.577592301190485</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.463763410713216</c:v>
+                  <c:v>18.839541474873162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.067277836788087</c:v>
+                  <c:v>21.986160853607981</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.138458692627452</c:v>
+                  <c:v>23.540327221676371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.680402839907522</c:v>
+                  <c:v>24.977018972171717</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.264361355508406</c:v>
+                  <c:v>27.706498926801039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.482310910047502</c:v>
+                  <c:v>32.234283487036457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,100 +4455,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>206.45138292973115</c:v>
+                  <c:v>232.59496278432516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.80776545054815</c:v>
+                  <c:v>236.21079628756306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.98929473618105</c:v>
+                  <c:v>239.15603344153504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.20750352714921</c:v>
+                  <c:v>243.86409039963837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.43626553932921</c:v>
+                  <c:v>247.03402663160352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.85832669675935</c:v>
+                  <c:v>245.8960294225158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220.39898162761099</c:v>
+                  <c:v>250.84124718725707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221.59553198904311</c:v>
+                  <c:v>253.442768419527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>224.01143448737048</c:v>
+                  <c:v>253.49791995623883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>228.60760606245094</c:v>
+                  <c:v>256.40897337585744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>232.02727692861509</c:v>
+                  <c:v>259.79978840274828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>236.27131033633603</c:v>
+                  <c:v>261.75876857531199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>236.99545747654147</c:v>
+                  <c:v>261.14079492965988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.38101302223788</c:v>
+                  <c:v>260.78984131722086</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>241.43840755508137</c:v>
+                  <c:v>261.95072692658965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>242.05033778744277</c:v>
+                  <c:v>264.98267355238363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>244.82474735170797</c:v>
+                  <c:v>263.99116133317023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>244.34301544761126</c:v>
+                  <c:v>263.07676512534476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>244.40515131619384</c:v>
+                  <c:v>263.5812822671744</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>246.93366762297418</c:v>
+                  <c:v>266.41781525250678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>247.52053692804037</c:v>
+                  <c:v>263.5017296369403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246.05897665730282</c:v>
+                  <c:v>264.28600228141653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>244.58753857592393</c:v>
+                  <c:v>265.17116469736948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>244.59933517088211</c:v>
+                  <c:v>261.31054409871047</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>242.53147249863312</c:v>
+                  <c:v>259.97270593129548</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>241.49963034192837</c:v>
+                  <c:v>259.79410702070408</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>240.70320003931619</c:v>
+                  <c:v>259.26703590562602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>236.93307066170402</c:v>
+                  <c:v>255.942905862674</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233.24076723568882</c:v>
+                  <c:v>253.06271759796059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>228.25873777989599</c:v>
+                  <c:v>250.11716565618934</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>225.72446816473186</c:v>
+                  <c:v>247.0706709428153</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226.40642631463265</c:v>
+                  <c:v>242.59110390209747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,7 +4569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BE</c:v>
+                  <c:v>SI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4596,97 +4599,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1893575293120395</c:v>
+                  <c:v>1.33278346236484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3712546190392481</c:v>
+                  <c:v>1.7148614406288727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5650762015515101</c:v>
+                  <c:v>2.0238599228566687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7995523593754359</c:v>
+                  <c:v>2.4858753053911395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1458309844293959</c:v>
+                  <c:v>2.8375155890795241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5545928198926715</c:v>
+                  <c:v>3.4734498939297165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8796822582716328</c:v>
+                  <c:v>3.7487342330412163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3313516641824421</c:v>
+                  <c:v>4.5132334905565017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.052524765355968</c:v>
+                  <c:v>4.924508600259518</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8738176564213793</c:v>
+                  <c:v>5.3190393613623002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4490300444130773</c:v>
+                  <c:v>5.9203563698068224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5018841103010478</c:v>
+                  <c:v>6.2475577333538199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7355506266086032</c:v>
+                  <c:v>6.6505087938588181</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9668248836721656</c:v>
+                  <c:v>7.663485242589128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0174611411098979</c:v>
+                  <c:v>8.5951664452981316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.017344002012498</c:v>
+                  <c:v>8.93371625856207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.724391435736431</c:v>
+                  <c:v>9.1602258996545807</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.469731957347086</c:v>
+                  <c:v>10.269646109001929</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.862241413683087</c:v>
+                  <c:v>10.535622991149152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.70941896099345</c:v>
+                  <c:v>10.868104776170764</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.374161273347131</c:v>
+                  <c:v>12.206034101949607</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.262397009578962</c:v>
+                  <c:v>13.438784171846006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.489087194711061</c:v>
+                  <c:v>14.779733874325359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.201682725776735</c:v>
+                  <c:v>15.613995244429113</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.487993420210032</c:v>
+                  <c:v>17.577592301190485</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.463763410713216</c:v>
+                  <c:v>18.839541474873162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.067277836788087</c:v>
+                  <c:v>21.986160853607981</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.138458692627452</c:v>
+                  <c:v>23.540327221676371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.680402839907522</c:v>
+                  <c:v>24.977018972171717</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.264361355508406</c:v>
+                  <c:v>27.706498926801039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.482310910047502</c:v>
+                  <c:v>32.234283487036457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,100 +4701,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>206.45138292973115</c:v>
+                  <c:v>232.59496278432516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.80776545054815</c:v>
+                  <c:v>236.21079628756306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.98929473618105</c:v>
+                  <c:v>239.15603344153504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.20750352714921</c:v>
+                  <c:v>243.86409039963837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.43626553932921</c:v>
+                  <c:v>247.03402663160352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.85832669675935</c:v>
+                  <c:v>245.8960294225158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220.39898162761099</c:v>
+                  <c:v>250.84124718725707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221.59553198904311</c:v>
+                  <c:v>253.442768419527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>224.01143448737048</c:v>
+                  <c:v>253.49791995623883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>228.60760606245094</c:v>
+                  <c:v>256.40897337585744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>232.02727692861509</c:v>
+                  <c:v>259.79978840274828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>236.27131033633603</c:v>
+                  <c:v>261.75876857531199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>236.99545747654147</c:v>
+                  <c:v>261.14079492965988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.38101302223788</c:v>
+                  <c:v>260.78984131722086</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>241.43840755508137</c:v>
+                  <c:v>261.95072692658965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>242.05033778744277</c:v>
+                  <c:v>264.98267355238363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>244.82474735170797</c:v>
+                  <c:v>263.99116133317023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>244.34301544761126</c:v>
+                  <c:v>263.07676512534476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>244.40515131619384</c:v>
+                  <c:v>263.5812822671744</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>246.93366762297418</c:v>
+                  <c:v>266.41781525250678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>247.52053692804037</c:v>
+                  <c:v>263.5017296369403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246.05897665730282</c:v>
+                  <c:v>264.28600228141653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>244.58753857592393</c:v>
+                  <c:v>265.17116469736948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>244.59933517088211</c:v>
+                  <c:v>261.31054409871047</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>242.53147249863312</c:v>
+                  <c:v>259.97270593129548</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>241.49963034192837</c:v>
+                  <c:v>259.79410702070408</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>240.70320003931619</c:v>
+                  <c:v>259.26703590562602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>236.93307066170402</c:v>
+                  <c:v>255.942905862674</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233.24076723568882</c:v>
+                  <c:v>253.06271759796059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>228.25873777989599</c:v>
+                  <c:v>250.11716565618934</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>225.72446816473186</c:v>
+                  <c:v>247.0706709428153</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226.40642631463265</c:v>
+                  <c:v>242.59110390209747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4812,7 +4815,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BE</c:v>
+                  <c:v>SI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4871,97 +4874,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1893575293120395</c:v>
+                  <c:v>1.33278346236484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3712546190392481</c:v>
+                  <c:v>1.7148614406288727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5650762015515101</c:v>
+                  <c:v>2.0238599228566687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7995523593754359</c:v>
+                  <c:v>2.4858753053911395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1458309844293959</c:v>
+                  <c:v>2.8375155890795241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5545928198926715</c:v>
+                  <c:v>3.4734498939297165</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8796822582716328</c:v>
+                  <c:v>3.7487342330412163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3313516641824421</c:v>
+                  <c:v>4.5132334905565017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.052524765355968</c:v>
+                  <c:v>4.924508600259518</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8738176564213793</c:v>
+                  <c:v>5.3190393613623002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4490300444130773</c:v>
+                  <c:v>5.9203563698068224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5018841103010478</c:v>
+                  <c:v>6.2475577333538199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7355506266086032</c:v>
+                  <c:v>6.6505087938588181</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9668248836721656</c:v>
+                  <c:v>7.663485242589128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0174611411098979</c:v>
+                  <c:v>8.5951664452981316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.017344002012498</c:v>
+                  <c:v>8.93371625856207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.724391435736431</c:v>
+                  <c:v>9.1602258996545807</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.469731957347086</c:v>
+                  <c:v>10.269646109001929</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.862241413683087</c:v>
+                  <c:v>10.535622991149152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.70941896099345</c:v>
+                  <c:v>10.868104776170764</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.374161273347131</c:v>
+                  <c:v>12.206034101949607</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.262397009578962</c:v>
+                  <c:v>13.438784171846006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.489087194711061</c:v>
+                  <c:v>14.779733874325359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.201682725776735</c:v>
+                  <c:v>15.613995244429113</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.487993420210032</c:v>
+                  <c:v>17.577592301190485</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.463763410713216</c:v>
+                  <c:v>18.839541474873162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.067277836788087</c:v>
+                  <c:v>21.986160853607981</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.138458692627452</c:v>
+                  <c:v>23.540327221676371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.680402839907522</c:v>
+                  <c:v>24.977018972171717</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.264361355508406</c:v>
+                  <c:v>27.706498926801039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.482310910047502</c:v>
+                  <c:v>32.234283487036457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,100 +4976,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>206.45138292973115</c:v>
+                  <c:v>232.59496278432516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.80776545054815</c:v>
+                  <c:v>236.21079628756306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.98929473618105</c:v>
+                  <c:v>239.15603344153504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212.20750352714921</c:v>
+                  <c:v>243.86409039963837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.43626553932921</c:v>
+                  <c:v>247.03402663160352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217.85832669675935</c:v>
+                  <c:v>245.8960294225158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220.39898162761099</c:v>
+                  <c:v>250.84124718725707</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221.59553198904311</c:v>
+                  <c:v>253.442768419527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>224.01143448737048</c:v>
+                  <c:v>253.49791995623883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>228.60760606245094</c:v>
+                  <c:v>256.40897337585744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>232.02727692861509</c:v>
+                  <c:v>259.79978840274828</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>236.27131033633603</c:v>
+                  <c:v>261.75876857531199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>236.99545747654147</c:v>
+                  <c:v>261.14079492965988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.38101302223788</c:v>
+                  <c:v>260.78984131722086</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>241.43840755508137</c:v>
+                  <c:v>261.95072692658965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>242.05033778744277</c:v>
+                  <c:v>264.98267355238363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>244.82474735170797</c:v>
+                  <c:v>263.99116133317023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>244.34301544761126</c:v>
+                  <c:v>263.07676512534476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>244.40515131619384</c:v>
+                  <c:v>263.5812822671744</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>246.93366762297418</c:v>
+                  <c:v>266.41781525250678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>247.52053692804037</c:v>
+                  <c:v>263.5017296369403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>246.05897665730282</c:v>
+                  <c:v>264.28600228141653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>244.58753857592393</c:v>
+                  <c:v>265.17116469736948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>244.59933517088211</c:v>
+                  <c:v>261.31054409871047</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>242.53147249863312</c:v>
+                  <c:v>259.97270593129548</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>241.49963034192837</c:v>
+                  <c:v>259.79410702070408</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>240.70320003931619</c:v>
+                  <c:v>259.26703590562602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>236.93307066170402</c:v>
+                  <c:v>255.942905862674</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233.24076723568882</c:v>
+                  <c:v>253.06271759796059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>228.25873777989599</c:v>
+                  <c:v>250.11716565618934</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>225.72446816473186</c:v>
+                  <c:v>247.0706709428153</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226.40642631463265</c:v>
+                  <c:v>242.59110390209747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5087,7 +5090,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AT</c:v>
+                  <c:v>LU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5117,97 +5120,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3170188919554626</c:v>
+                  <c:v>1.3029996417463856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5927828470654144</c:v>
+                  <c:v>1.6515408004407408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8220556590424579</c:v>
+                  <c:v>2.0518247937912366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0315371549938805</c:v>
+                  <c:v>2.346874750133511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5431085287493755</c:v>
+                  <c:v>2.868120459533448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0842217810659225</c:v>
+                  <c:v>3.2958113162601443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3729095851004725</c:v>
+                  <c:v>4.0267240438410683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7669597858535164</c:v>
+                  <c:v>4.7329028467817036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0985239714355908</c:v>
+                  <c:v>5.2880132672214675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7032940746935807</c:v>
+                  <c:v>5.8944490877580034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0625206396556477</c:v>
+                  <c:v>6.1867592296056513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2980609050108454</c:v>
+                  <c:v>6.3654927722986354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7302146297421297</c:v>
+                  <c:v>6.9675466374838022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6479873685499484</c:v>
+                  <c:v>7.5991681809638187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4304956687490931</c:v>
+                  <c:v>7.9927861977749384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6672285730687424</c:v>
+                  <c:v>9.5167959392731092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.4462042572873752</c:v>
+                  <c:v>10.981248932617707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.977972080723351</c:v>
+                  <c:v>11.587846995386201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.263809241443123</c:v>
+                  <c:v>12.344027214824033</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.181695790133158</c:v>
+                  <c:v>14.142376796193147</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.71976923169265</c:v>
+                  <c:v>16.283677950478182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.09382841447988</c:v>
+                  <c:v>19.230214117323033</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.15812491774893</c:v>
+                  <c:v>21.477716197613251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.459918431496773</c:v>
+                  <c:v>23.456496414745676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.451679218891204</c:v>
+                  <c:v>25.815655965929135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.713962110416059</c:v>
+                  <c:v>27.00625705549492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.931928663941807</c:v>
+                  <c:v>31.725251578194143</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.306114870679593</c:v>
+                  <c:v>33.637215797103757</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.74238516675512</c:v>
+                  <c:v>38.28413538846101</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.015422588935778</c:v>
+                  <c:v>39.482196460947137</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.480438527860304</c:v>
+                  <c:v>45.244991055798742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5219,100 +5222,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>180.77517016222109</c:v>
+                  <c:v>171.93196398419323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.26609790126821</c:v>
+                  <c:v>175.29316521605008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.15092057208176</c:v>
+                  <c:v>178.47281879339678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.10937661206788</c:v>
+                  <c:v>180.87026224979977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.43933779988856</c:v>
+                  <c:v>185.67117689633932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.63890387455231</c:v>
+                  <c:v>185.66048301323619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.94283562212544</c:v>
+                  <c:v>190.75415087254922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198.33867821255021</c:v>
+                  <c:v>196.33843366360034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.51228910303263</c:v>
+                  <c:v>199.31695709835438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.62727864075657</c:v>
+                  <c:v>203.06425815644735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207.02226227322913</c:v>
+                  <c:v>202.61655784309707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.5776813654594</c:v>
+                  <c:v>205.18156533275237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206.46686655477373</c:v>
+                  <c:v>205.5318515971482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.80334398811959</c:v>
+                  <c:v>207.33086374671234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>213.5566008377501</c:v>
+                  <c:v>207.74044786395208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>214.89372313907955</c:v>
+                  <c:v>212.0208421608958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>219.6302985829104</c:v>
+                  <c:v>212.21006271967715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>221.00296739353425</c:v>
+                  <c:v>213.79532959687626</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>222.21019503319897</c:v>
+                  <c:v>214.59613389062875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>219.10682393102957</c:v>
+                  <c:v>214.39987434850195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.01693829022472</c:v>
+                  <c:v>216.40943696345164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>223.07786510340628</c:v>
+                  <c:v>214.30734175269745</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>224.77995656758733</c:v>
+                  <c:v>214.96446164754278</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>224.07537620810507</c:v>
+                  <c:v>214.19927975238343</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>224.55585898622022</c:v>
+                  <c:v>214.60301865400297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>222.34516133969288</c:v>
+                  <c:v>212.67963354739453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>221.58648577957632</c:v>
+                  <c:v>208.95731205619398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>221.14988064612322</c:v>
+                  <c:v>208.47609194100755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>222.10311491453695</c:v>
+                  <c:v>207.70665808978777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>221.53205082700896</c:v>
+                  <c:v>202.9752211292554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>218.89644374962504</c:v>
+                  <c:v>203.5510992463459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>220.90079914526268</c:v>
+                  <c:v>202.74327051601074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5333,7 +5336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AT</c:v>
+                  <c:v>LU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5363,97 +5366,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3170188919554626</c:v>
+                  <c:v>1.3029996417463856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5927828470654144</c:v>
+                  <c:v>1.6515408004407408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8220556590424579</c:v>
+                  <c:v>2.0518247937912366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0315371549938805</c:v>
+                  <c:v>2.346874750133511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5431085287493755</c:v>
+                  <c:v>2.868120459533448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0842217810659225</c:v>
+                  <c:v>3.2958113162601443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3729095851004725</c:v>
+                  <c:v>4.0267240438410683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7669597858535164</c:v>
+                  <c:v>4.7329028467817036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0985239714355908</c:v>
+                  <c:v>5.2880132672214675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7032940746935807</c:v>
+                  <c:v>5.8944490877580034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0625206396556477</c:v>
+                  <c:v>6.1867592296056513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2980609050108454</c:v>
+                  <c:v>6.3654927722986354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7302146297421297</c:v>
+                  <c:v>6.9675466374838022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6479873685499484</c:v>
+                  <c:v>7.5991681809638187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4304956687490931</c:v>
+                  <c:v>7.9927861977749384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6672285730687424</c:v>
+                  <c:v>9.5167959392731092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.4462042572873752</c:v>
+                  <c:v>10.981248932617707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.977972080723351</c:v>
+                  <c:v>11.587846995386201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.263809241443123</c:v>
+                  <c:v>12.344027214824033</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.181695790133158</c:v>
+                  <c:v>14.142376796193147</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.71976923169265</c:v>
+                  <c:v>16.283677950478182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.09382841447988</c:v>
+                  <c:v>19.230214117323033</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.15812491774893</c:v>
+                  <c:v>21.477716197613251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.459918431496773</c:v>
+                  <c:v>23.456496414745676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.451679218891204</c:v>
+                  <c:v>25.815655965929135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.713962110416059</c:v>
+                  <c:v>27.00625705549492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.931928663941807</c:v>
+                  <c:v>31.725251578194143</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.306114870679593</c:v>
+                  <c:v>33.637215797103757</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.74238516675512</c:v>
+                  <c:v>38.28413538846101</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.015422588935778</c:v>
+                  <c:v>39.482196460947137</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.480438527860304</c:v>
+                  <c:v>45.244991055798742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5465,100 +5468,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>180.77517016222109</c:v>
+                  <c:v>171.93196398419323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.26609790126821</c:v>
+                  <c:v>175.29316521605008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.15092057208176</c:v>
+                  <c:v>178.47281879339678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.10937661206788</c:v>
+                  <c:v>180.87026224979977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.43933779988856</c:v>
+                  <c:v>185.67117689633932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.63890387455231</c:v>
+                  <c:v>185.66048301323619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.94283562212544</c:v>
+                  <c:v>190.75415087254922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198.33867821255021</c:v>
+                  <c:v>196.33843366360034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.51228910303263</c:v>
+                  <c:v>199.31695709835438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.62727864075657</c:v>
+                  <c:v>203.06425815644735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207.02226227322913</c:v>
+                  <c:v>202.61655784309707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.5776813654594</c:v>
+                  <c:v>205.18156533275237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206.46686655477373</c:v>
+                  <c:v>205.5318515971482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.80334398811959</c:v>
+                  <c:v>207.33086374671234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>213.5566008377501</c:v>
+                  <c:v>207.74044786395208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>214.89372313907955</c:v>
+                  <c:v>212.0208421608958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>219.6302985829104</c:v>
+                  <c:v>212.21006271967715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>221.00296739353425</c:v>
+                  <c:v>213.79532959687626</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>222.21019503319897</c:v>
+                  <c:v>214.59613389062875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>219.10682393102957</c:v>
+                  <c:v>214.39987434850195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.01693829022472</c:v>
+                  <c:v>216.40943696345164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>223.07786510340628</c:v>
+                  <c:v>214.30734175269745</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>224.77995656758733</c:v>
+                  <c:v>214.96446164754278</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>224.07537620810507</c:v>
+                  <c:v>214.19927975238343</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>224.55585898622022</c:v>
+                  <c:v>214.60301865400297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>222.34516133969288</c:v>
+                  <c:v>212.67963354739453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>221.58648577957632</c:v>
+                  <c:v>208.95731205619398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>221.14988064612322</c:v>
+                  <c:v>208.47609194100755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>222.10311491453695</c:v>
+                  <c:v>207.70665808978777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>221.53205082700896</c:v>
+                  <c:v>202.9752211292554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>218.89644374962504</c:v>
+                  <c:v>203.5510992463459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>220.90079914526268</c:v>
+                  <c:v>202.74327051601074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5579,7 +5582,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AT</c:v>
+                  <c:v>LU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5640,97 +5643,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3170188919554626</c:v>
+                  <c:v>1.3029996417463856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5927828470654144</c:v>
+                  <c:v>1.6515408004407408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8220556590424579</c:v>
+                  <c:v>2.0518247937912366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0315371549938805</c:v>
+                  <c:v>2.346874750133511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5431085287493755</c:v>
+                  <c:v>2.868120459533448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0842217810659225</c:v>
+                  <c:v>3.2958113162601443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3729095851004725</c:v>
+                  <c:v>4.0267240438410683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7669597858535164</c:v>
+                  <c:v>4.7329028467817036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0985239714355908</c:v>
+                  <c:v>5.2880132672214675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7032940746935807</c:v>
+                  <c:v>5.8944490877580034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0625206396556477</c:v>
+                  <c:v>6.1867592296056513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2980609050108454</c:v>
+                  <c:v>6.3654927722986354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7302146297421297</c:v>
+                  <c:v>6.9675466374838022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6479873685499484</c:v>
+                  <c:v>7.5991681809638187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4304956687490931</c:v>
+                  <c:v>7.9927861977749384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6672285730687424</c:v>
+                  <c:v>9.5167959392731092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.4462042572873752</c:v>
+                  <c:v>10.981248932617707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.977972080723351</c:v>
+                  <c:v>11.587846995386201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.263809241443123</c:v>
+                  <c:v>12.344027214824033</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.181695790133158</c:v>
+                  <c:v>14.142376796193147</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.71976923169265</c:v>
+                  <c:v>16.283677950478182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.09382841447988</c:v>
+                  <c:v>19.230214117323033</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.15812491774893</c:v>
+                  <c:v>21.477716197613251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.459918431496773</c:v>
+                  <c:v>23.456496414745676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.451679218891204</c:v>
+                  <c:v>25.815655965929135</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.713962110416059</c:v>
+                  <c:v>27.00625705549492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.931928663941807</c:v>
+                  <c:v>31.725251578194143</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.306114870679593</c:v>
+                  <c:v>33.637215797103757</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.74238516675512</c:v>
+                  <c:v>38.28413538846101</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.015422588935778</c:v>
+                  <c:v>39.482196460947137</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25.480438527860304</c:v>
+                  <c:v>45.244991055798742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5742,100 +5745,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>180.77517016222109</c:v>
+                  <c:v>171.93196398419323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180.26609790126821</c:v>
+                  <c:v>175.29316521605008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.15092057208176</c:v>
+                  <c:v>178.47281879339678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188.10937661206788</c:v>
+                  <c:v>180.87026224979977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.43933779988856</c:v>
+                  <c:v>185.67117689633932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>190.63890387455231</c:v>
+                  <c:v>185.66048301323619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.94283562212544</c:v>
+                  <c:v>190.75415087254922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198.33867821255021</c:v>
+                  <c:v>196.33843366360034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>199.51228910303263</c:v>
+                  <c:v>199.31695709835438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200.62727864075657</c:v>
+                  <c:v>203.06425815644735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207.02226227322913</c:v>
+                  <c:v>202.61655784309707</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.5776813654594</c:v>
+                  <c:v>205.18156533275237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206.46686655477373</c:v>
+                  <c:v>205.5318515971482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.80334398811959</c:v>
+                  <c:v>207.33086374671234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>213.5566008377501</c:v>
+                  <c:v>207.74044786395208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>214.89372313907955</c:v>
+                  <c:v>212.0208421608958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>219.6302985829104</c:v>
+                  <c:v>212.21006271967715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>221.00296739353425</c:v>
+                  <c:v>213.79532959687626</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>222.21019503319897</c:v>
+                  <c:v>214.59613389062875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>219.10682393102957</c:v>
+                  <c:v>214.39987434850195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>223.01693829022472</c:v>
+                  <c:v>216.40943696345164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>223.07786510340628</c:v>
+                  <c:v>214.30734175269745</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>224.77995656758733</c:v>
+                  <c:v>214.96446164754278</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>224.07537620810507</c:v>
+                  <c:v>214.19927975238343</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>224.55585898622022</c:v>
+                  <c:v>214.60301865400297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>222.34516133969288</c:v>
+                  <c:v>212.67963354739453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>221.58648577957632</c:v>
+                  <c:v>208.95731205619398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>221.14988064612322</c:v>
+                  <c:v>208.47609194100755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>222.10311491453695</c:v>
+                  <c:v>207.70665808978777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>221.53205082700896</c:v>
+                  <c:v>202.9752211292554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>218.89644374962504</c:v>
+                  <c:v>203.5510992463459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>220.90079914526268</c:v>
+                  <c:v>202.74327051601074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5856,7 +5859,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FI</c:v>
+                  <c:v>HR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5886,97 +5889,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2581840240073157</c:v>
+                  <c:v>1.2876244111486215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5317755844175154</c:v>
+                  <c:v>1.5008411611753876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7873104171454697</c:v>
+                  <c:v>1.7697749938705178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0201279996450112</c:v>
+                  <c:v>2.2048794070643596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4364147808033354</c:v>
+                  <c:v>2.6212426692654378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9544141127183399</c:v>
+                  <c:v>3.0505287735597726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1881005996234411</c:v>
+                  <c:v>3.722170983074327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5030999729132541</c:v>
+                  <c:v>3.9349036524349432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8791495327800485</c:v>
+                  <c:v>4.4159886198407081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6485054372251398</c:v>
+                  <c:v>5.1824214677799789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0016507286370686</c:v>
+                  <c:v>5.9231717211091928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4897016925305113</c:v>
+                  <c:v>6.7072714241372253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6745791419488336</c:v>
+                  <c:v>7.3748464055398433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3004309833210073</c:v>
+                  <c:v>8.7025488474866606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7038782071349328</c:v>
+                  <c:v>9.4607429970849655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1495599383498138</c:v>
+                  <c:v>10.596908096479897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1639366288219275</c:v>
+                  <c:v>11.437186069818408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7380987770571057</c:v>
+                  <c:v>13.48368538431626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.272120593701425</c:v>
+                  <c:v>14.525347071479775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.989069161126542</c:v>
+                  <c:v>15.582204455267153</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.388719173342084</c:v>
+                  <c:v>15.977680567615311</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.011363082477926</c:v>
+                  <c:v>18.208695072404897</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.214863520502531</c:v>
+                  <c:v>19.908231422743729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.501217101669871</c:v>
+                  <c:v>20.439619577474016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.917767737017904</c:v>
+                  <c:v>22.002404144599971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.971525376472925</c:v>
+                  <c:v>25.685090984531978</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.269958696102847</c:v>
+                  <c:v>26.492052432940021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.377004638391682</c:v>
+                  <c:v>28.617777688308752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.441906678644273</c:v>
+                  <c:v>31.25971780382611</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.150756767755013</c:v>
+                  <c:v>31.463718709236492</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.980691008601497</c:v>
+                  <c:v>35.555482969370679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,100 +5991,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>216.8863075012203</c:v>
+                  <c:v>149.72115258254127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222.10166712462586</c:v>
+                  <c:v>155.13610464286893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.0086769691016</c:v>
+                  <c:v>157.57010772822397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>226.13903324690727</c:v>
+                  <c:v>156.93633189163128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>228.50446726539741</c:v>
+                  <c:v>162.73771445007162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.6223189893411</c:v>
+                  <c:v>166.87326981623232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232.60755393910293</c:v>
+                  <c:v>171.42591442335311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237.80522111935196</c:v>
+                  <c:v>175.78904227204916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236.18489397214245</c:v>
+                  <c:v>175.76794315387266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>239.13121731150591</c:v>
+                  <c:v>181.36556194953619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.0762752626211</c:v>
+                  <c:v>183.64643556811987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>244.78771063513378</c:v>
+                  <c:v>187.36884296998068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.77090548489977</c:v>
+                  <c:v>191.5039107610765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>248.58990552370508</c:v>
+                  <c:v>195.26468184488027</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>251.37689523375491</c:v>
+                  <c:v>198.00288766712333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.57400734412602</c:v>
+                  <c:v>197.63229598179353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>253.00764821152509</c:v>
+                  <c:v>201.71560264805677</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>255.25408841895333</c:v>
+                  <c:v>199.90353930517699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>253.70226855294516</c:v>
+                  <c:v>202.95954338806655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>255.36208421967444</c:v>
+                  <c:v>203.32201620888824</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>256.22016428026598</c:v>
+                  <c:v>200.97949885761227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>257.20123217077474</c:v>
+                  <c:v>201.76710806526836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>256.20833682062118</c:v>
+                  <c:v>200.24089723125431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>257.36245232119938</c:v>
+                  <c:v>199.34514289857918</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>253.84656108703626</c:v>
+                  <c:v>202.76123858718006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>254.08048584978886</c:v>
+                  <c:v>199.64464411557736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>249.85160853385236</c:v>
+                  <c:v>198.14470883253924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>246.87985465714817</c:v>
+                  <c:v>196.31081495798662</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>246.42360300587418</c:v>
+                  <c:v>195.85383328613739</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>244.13070710371014</c:v>
+                  <c:v>194.30392395469647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>238.68461493108848</c:v>
+                  <c:v>193.7230030489379</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>239.52165522390524</c:v>
+                  <c:v>189.89926257831155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,7 +6105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FI</c:v>
+                  <c:v>HR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6132,97 +6135,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2581840240073157</c:v>
+                  <c:v>1.2876244111486215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5317755844175154</c:v>
+                  <c:v>1.5008411611753876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7873104171454697</c:v>
+                  <c:v>1.7697749938705178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0201279996450112</c:v>
+                  <c:v>2.2048794070643596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4364147808033354</c:v>
+                  <c:v>2.6212426692654378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9544141127183399</c:v>
+                  <c:v>3.0505287735597726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1881005996234411</c:v>
+                  <c:v>3.722170983074327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5030999729132541</c:v>
+                  <c:v>3.9349036524349432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8791495327800485</c:v>
+                  <c:v>4.4159886198407081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6485054372251398</c:v>
+                  <c:v>5.1824214677799789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0016507286370686</c:v>
+                  <c:v>5.9231717211091928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4897016925305113</c:v>
+                  <c:v>6.7072714241372253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6745791419488336</c:v>
+                  <c:v>7.3748464055398433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3004309833210073</c:v>
+                  <c:v>8.7025488474866606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7038782071349328</c:v>
+                  <c:v>9.4607429970849655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1495599383498138</c:v>
+                  <c:v>10.596908096479897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1639366288219275</c:v>
+                  <c:v>11.437186069818408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7380987770571057</c:v>
+                  <c:v>13.48368538431626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.272120593701425</c:v>
+                  <c:v>14.525347071479775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.989069161126542</c:v>
+                  <c:v>15.582204455267153</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.388719173342084</c:v>
+                  <c:v>15.977680567615311</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.011363082477926</c:v>
+                  <c:v>18.208695072404897</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.214863520502531</c:v>
+                  <c:v>19.908231422743729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.501217101669871</c:v>
+                  <c:v>20.439619577474016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.917767737017904</c:v>
+                  <c:v>22.002404144599971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.971525376472925</c:v>
+                  <c:v>25.685090984531978</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.269958696102847</c:v>
+                  <c:v>26.492052432940021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.377004638391682</c:v>
+                  <c:v>28.617777688308752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.441906678644273</c:v>
+                  <c:v>31.25971780382611</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.150756767755013</c:v>
+                  <c:v>31.463718709236492</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.980691008601497</c:v>
+                  <c:v>35.555482969370679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6234,100 +6237,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>216.8863075012203</c:v>
+                  <c:v>149.72115258254127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222.10166712462586</c:v>
+                  <c:v>155.13610464286893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.0086769691016</c:v>
+                  <c:v>157.57010772822397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>226.13903324690727</c:v>
+                  <c:v>156.93633189163128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>228.50446726539741</c:v>
+                  <c:v>162.73771445007162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.6223189893411</c:v>
+                  <c:v>166.87326981623232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232.60755393910293</c:v>
+                  <c:v>171.42591442335311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237.80522111935196</c:v>
+                  <c:v>175.78904227204916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236.18489397214245</c:v>
+                  <c:v>175.76794315387266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>239.13121731150591</c:v>
+                  <c:v>181.36556194953619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.0762752626211</c:v>
+                  <c:v>183.64643556811987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>244.78771063513378</c:v>
+                  <c:v>187.36884296998068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.77090548489977</c:v>
+                  <c:v>191.5039107610765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>248.58990552370508</c:v>
+                  <c:v>195.26468184488027</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>251.37689523375491</c:v>
+                  <c:v>198.00288766712333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.57400734412602</c:v>
+                  <c:v>197.63229598179353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>253.00764821152509</c:v>
+                  <c:v>201.71560264805677</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>255.25408841895333</c:v>
+                  <c:v>199.90353930517699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>253.70226855294516</c:v>
+                  <c:v>202.95954338806655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>255.36208421967444</c:v>
+                  <c:v>203.32201620888824</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>256.22016428026598</c:v>
+                  <c:v>200.97949885761227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>257.20123217077474</c:v>
+                  <c:v>201.76710806526836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>256.20833682062118</c:v>
+                  <c:v>200.24089723125431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>257.36245232119938</c:v>
+                  <c:v>199.34514289857918</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>253.84656108703626</c:v>
+                  <c:v>202.76123858718006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>254.08048584978886</c:v>
+                  <c:v>199.64464411557736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>249.85160853385236</c:v>
+                  <c:v>198.14470883253924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>246.87985465714817</c:v>
+                  <c:v>196.31081495798662</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>246.42360300587418</c:v>
+                  <c:v>195.85383328613739</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>244.13070710371014</c:v>
+                  <c:v>194.30392395469647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>238.68461493108848</c:v>
+                  <c:v>193.7230030489379</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>239.52165522390524</c:v>
+                  <c:v>189.89926257831155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6348,7 +6351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FI</c:v>
+                  <c:v>HR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6409,97 +6412,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2581840240073157</c:v>
+                  <c:v>1.2876244111486215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5317755844175154</c:v>
+                  <c:v>1.5008411611753876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7873104171454697</c:v>
+                  <c:v>1.7697749938705178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0201279996450112</c:v>
+                  <c:v>2.2048794070643596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4364147808033354</c:v>
+                  <c:v>2.6212426692654378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9544141127183399</c:v>
+                  <c:v>3.0505287735597726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1881005996234411</c:v>
+                  <c:v>3.722170983074327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5030999729132541</c:v>
+                  <c:v>3.9349036524349432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8791495327800485</c:v>
+                  <c:v>4.4159886198407081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6485054372251398</c:v>
+                  <c:v>5.1824214677799789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0016507286370686</c:v>
+                  <c:v>5.9231717211091928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4897016925305113</c:v>
+                  <c:v>6.7072714241372253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6745791419488336</c:v>
+                  <c:v>7.3748464055398433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3004309833210073</c:v>
+                  <c:v>8.7025488474866606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7038782071349328</c:v>
+                  <c:v>9.4607429970849655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1495599383498138</c:v>
+                  <c:v>10.596908096479897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1639366288219275</c:v>
+                  <c:v>11.437186069818408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7380987770571057</c:v>
+                  <c:v>13.48368538431626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.272120593701425</c:v>
+                  <c:v>14.525347071479775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.989069161126542</c:v>
+                  <c:v>15.582204455267153</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.388719173342084</c:v>
+                  <c:v>15.977680567615311</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.011363082477926</c:v>
+                  <c:v>18.208695072404897</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.214863520502531</c:v>
+                  <c:v>19.908231422743729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.501217101669871</c:v>
+                  <c:v>20.439619577474016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.917767737017904</c:v>
+                  <c:v>22.002404144599971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.971525376472925</c:v>
+                  <c:v>25.685090984531978</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.269958696102847</c:v>
+                  <c:v>26.492052432940021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.377004638391682</c:v>
+                  <c:v>28.617777688308752</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.441906678644273</c:v>
+                  <c:v>31.25971780382611</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.150756767755013</c:v>
+                  <c:v>31.463718709236492</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.980691008601497</c:v>
+                  <c:v>35.555482969370679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,100 +6514,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>216.8863075012203</c:v>
+                  <c:v>149.72115258254127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222.10166712462586</c:v>
+                  <c:v>155.13610464286893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.0086769691016</c:v>
+                  <c:v>157.57010772822397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>226.13903324690727</c:v>
+                  <c:v>156.93633189163128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>228.50446726539741</c:v>
+                  <c:v>162.73771445007162</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.6223189893411</c:v>
+                  <c:v>166.87326981623232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232.60755393910293</c:v>
+                  <c:v>171.42591442335311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237.80522111935196</c:v>
+                  <c:v>175.78904227204916</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>236.18489397214245</c:v>
+                  <c:v>175.76794315387266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>239.13121731150591</c:v>
+                  <c:v>181.36556194953619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.0762752626211</c:v>
+                  <c:v>183.64643556811987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>244.78771063513378</c:v>
+                  <c:v>187.36884296998068</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>245.77090548489977</c:v>
+                  <c:v>191.5039107610765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>248.58990552370508</c:v>
+                  <c:v>195.26468184488027</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>251.37689523375491</c:v>
+                  <c:v>198.00288766712333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>249.57400734412602</c:v>
+                  <c:v>197.63229598179353</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>253.00764821152509</c:v>
+                  <c:v>201.71560264805677</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>255.25408841895333</c:v>
+                  <c:v>199.90353930517699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>253.70226855294516</c:v>
+                  <c:v>202.95954338806655</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>255.36208421967444</c:v>
+                  <c:v>203.32201620888824</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>256.22016428026598</c:v>
+                  <c:v>200.97949885761227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>257.20123217077474</c:v>
+                  <c:v>201.76710806526836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>256.20833682062118</c:v>
+                  <c:v>200.24089723125431</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>257.36245232119938</c:v>
+                  <c:v>199.34514289857918</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>253.84656108703626</c:v>
+                  <c:v>202.76123858718006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>254.08048584978886</c:v>
+                  <c:v>199.64464411557736</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>249.85160853385236</c:v>
+                  <c:v>198.14470883253924</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>246.87985465714817</c:v>
+                  <c:v>196.31081495798662</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>246.42360300587418</c:v>
+                  <c:v>195.85383328613739</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>244.13070710371014</c:v>
+                  <c:v>194.30392395469647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>238.68461493108848</c:v>
+                  <c:v>193.7230030489379</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>239.52165522390524</c:v>
+                  <c:v>189.89926257831155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6625,7 +6628,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GR</c:v>
+                  <c:v>LT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6655,97 +6658,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2855655843374028</c:v>
+                  <c:v>1.3080880697639159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5742788013275357</c:v>
+                  <c:v>1.5864836003459952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9202978974386689</c:v>
+                  <c:v>1.795929506138829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1760229093452628</c:v>
+                  <c:v>2.1101315487036048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.709498461426227</c:v>
+                  <c:v>2.5358337289447967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8868934172996443</c:v>
+                  <c:v>3.0162543020239982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4008278047042175</c:v>
+                  <c:v>3.4628032522544814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8166320348682623</c:v>
+                  <c:v>3.9886598510463793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2142420332539006</c:v>
+                  <c:v>4.8027337658614275</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9780613812846086</c:v>
+                  <c:v>5.3867230182052168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4928630476135947</c:v>
+                  <c:v>6.4910730255933151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4335950035674392</c:v>
+                  <c:v>7.131740082001456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.991378664462788</c:v>
+                  <c:v>8.4248565380407623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3812354139671701</c:v>
+                  <c:v>9.5250355959020414</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.006130125674851</c:v>
+                  <c:v>10.216058606644753</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.22678163156302</c:v>
+                  <c:v>10.99211530285708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.973632538324686</c:v>
+                  <c:v>12.767067790595258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.990156428610145</c:v>
+                  <c:v>14.966487768268605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.457453159940183</c:v>
+                  <c:v>15.90776022624134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.785061660896863</c:v>
+                  <c:v>16.322876505097955</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.15560107244978</c:v>
+                  <c:v>18.985804226697361</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.289000397723111</c:v>
+                  <c:v>19.710639252020918</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.382682329383208</c:v>
+                  <c:v>20.593800341666931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.122023754552337</c:v>
+                  <c:v>22.613934538497798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.400776245278152</c:v>
+                  <c:v>23.927555039889121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.448844570625432</c:v>
+                  <c:v>26.731182427071587</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.019182086345467</c:v>
+                  <c:v>28.311774565442985</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.527293261007358</c:v>
+                  <c:v>31.833906832179938</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.448854081409294</c:v>
+                  <c:v>34.39345407546346</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52.446532015951711</c:v>
+                  <c:v>37.908916463548159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59.397907119433206</c:v>
+                  <c:v>43.464078664892831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6757,100 +6760,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>184.44240029699944</c:v>
+                  <c:v>188.26107090697059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185.96632667530884</c:v>
+                  <c:v>187.42975389915506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.99148289843924</c:v>
+                  <c:v>189.95815389875506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194.99788930089019</c:v>
+                  <c:v>192.83469553267295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.55978039964725</c:v>
+                  <c:v>194.78291958876983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198.85177190654426</c:v>
+                  <c:v>199.55012331499105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.87155225923919</c:v>
+                  <c:v>200.74593774283636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>206.40550246879238</c:v>
+                  <c:v>203.03091721861776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.19711275055661</c:v>
+                  <c:v>206.43109251922036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>211.6371900529588</c:v>
+                  <c:v>210.5078289536504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.4843702218725</c:v>
+                  <c:v>212.98270245360794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215.2182637544669</c:v>
+                  <c:v>213.34022353952381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>218.60140555152674</c:v>
+                  <c:v>216.6384565459995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220.93079684094613</c:v>
+                  <c:v>217.96252358349346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225.68205509649104</c:v>
+                  <c:v>219.53542068778918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>228.5343407750085</c:v>
+                  <c:v>219.9062826251816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>230.10017169900178</c:v>
+                  <c:v>221.61612035314636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230.95514773324862</c:v>
+                  <c:v>220.06863035026606</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>229.03487622196073</c:v>
+                  <c:v>218.17449028374105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.34047827393471</c:v>
+                  <c:v>218.32085574468152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>232.60691450033599</c:v>
+                  <c:v>218.36003863127607</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231.42471627475689</c:v>
+                  <c:v>214.55202552021012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>228.96217368022772</c:v>
+                  <c:v>214.95628176970556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>229.52358636496123</c:v>
+                  <c:v>212.10694962163285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>227.45084220472057</c:v>
+                  <c:v>212.7797811704643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>223.33644116505482</c:v>
+                  <c:v>211.23951163714679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>219.64423355374387</c:v>
+                  <c:v>205.72304793422038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>220.10279506265368</c:v>
+                  <c:v>207.85116151552177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>216.03920998281305</c:v>
+                  <c:v>201.5931121986622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>214.37409056296667</c:v>
+                  <c:v>200.0423973723837</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.77619471112524</c:v>
+                  <c:v>198.30461728895088</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>212.36110302046532</c:v>
+                  <c:v>192.96356147343022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6871,7 +6874,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GR</c:v>
+                  <c:v>LT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6901,97 +6904,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2855655843374028</c:v>
+                  <c:v>1.3080880697639159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5742788013275357</c:v>
+                  <c:v>1.5864836003459952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9202978974386689</c:v>
+                  <c:v>1.795929506138829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1760229093452628</c:v>
+                  <c:v>2.1101315487036048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.709498461426227</c:v>
+                  <c:v>2.5358337289447967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8868934172996443</c:v>
+                  <c:v>3.0162543020239982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4008278047042175</c:v>
+                  <c:v>3.4628032522544814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8166320348682623</c:v>
+                  <c:v>3.9886598510463793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2142420332539006</c:v>
+                  <c:v>4.8027337658614275</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9780613812846086</c:v>
+                  <c:v>5.3867230182052168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4928630476135947</c:v>
+                  <c:v>6.4910730255933151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4335950035674392</c:v>
+                  <c:v>7.131740082001456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.991378664462788</c:v>
+                  <c:v>8.4248565380407623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3812354139671701</c:v>
+                  <c:v>9.5250355959020414</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.006130125674851</c:v>
+                  <c:v>10.216058606644753</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.22678163156302</c:v>
+                  <c:v>10.99211530285708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.973632538324686</c:v>
+                  <c:v>12.767067790595258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.990156428610145</c:v>
+                  <c:v>14.966487768268605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.457453159940183</c:v>
+                  <c:v>15.90776022624134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.785061660896863</c:v>
+                  <c:v>16.322876505097955</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.15560107244978</c:v>
+                  <c:v>18.985804226697361</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.289000397723111</c:v>
+                  <c:v>19.710639252020918</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.382682329383208</c:v>
+                  <c:v>20.593800341666931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.122023754552337</c:v>
+                  <c:v>22.613934538497798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.400776245278152</c:v>
+                  <c:v>23.927555039889121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.448844570625432</c:v>
+                  <c:v>26.731182427071587</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.019182086345467</c:v>
+                  <c:v>28.311774565442985</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.527293261007358</c:v>
+                  <c:v>31.833906832179938</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.448854081409294</c:v>
+                  <c:v>34.39345407546346</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52.446532015951711</c:v>
+                  <c:v>37.908916463548159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59.397907119433206</c:v>
+                  <c:v>43.464078664892831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7003,100 +7006,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>184.44240029699944</c:v>
+                  <c:v>188.26107090697059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185.96632667530884</c:v>
+                  <c:v>187.42975389915506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.99148289843924</c:v>
+                  <c:v>189.95815389875506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194.99788930089019</c:v>
+                  <c:v>192.83469553267295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.55978039964725</c:v>
+                  <c:v>194.78291958876983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198.85177190654426</c:v>
+                  <c:v>199.55012331499105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.87155225923919</c:v>
+                  <c:v>200.74593774283636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>206.40550246879238</c:v>
+                  <c:v>203.03091721861776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.19711275055661</c:v>
+                  <c:v>206.43109251922036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>211.6371900529588</c:v>
+                  <c:v>210.5078289536504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.4843702218725</c:v>
+                  <c:v>212.98270245360794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215.2182637544669</c:v>
+                  <c:v>213.34022353952381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>218.60140555152674</c:v>
+                  <c:v>216.6384565459995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220.93079684094613</c:v>
+                  <c:v>217.96252358349346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225.68205509649104</c:v>
+                  <c:v>219.53542068778918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>228.5343407750085</c:v>
+                  <c:v>219.9062826251816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>230.10017169900178</c:v>
+                  <c:v>221.61612035314636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230.95514773324862</c:v>
+                  <c:v>220.06863035026606</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>229.03487622196073</c:v>
+                  <c:v>218.17449028374105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.34047827393471</c:v>
+                  <c:v>218.32085574468152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>232.60691450033599</c:v>
+                  <c:v>218.36003863127607</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231.42471627475689</c:v>
+                  <c:v>214.55202552021012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>228.96217368022772</c:v>
+                  <c:v>214.95628176970556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>229.52358636496123</c:v>
+                  <c:v>212.10694962163285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>227.45084220472057</c:v>
+                  <c:v>212.7797811704643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>223.33644116505482</c:v>
+                  <c:v>211.23951163714679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>219.64423355374387</c:v>
+                  <c:v>205.72304793422038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>220.10279506265368</c:v>
+                  <c:v>207.85116151552177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>216.03920998281305</c:v>
+                  <c:v>201.5931121986622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>214.37409056296667</c:v>
+                  <c:v>200.0423973723837</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.77619471112524</c:v>
+                  <c:v>198.30461728895088</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>212.36110302046532</c:v>
+                  <c:v>192.96356147343022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7117,7 +7120,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GR</c:v>
+                  <c:v>LT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7174,97 +7177,97 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2855655843374028</c:v>
+                  <c:v>1.3080880697639159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5742788013275357</c:v>
+                  <c:v>1.5864836003459952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9202978974386689</c:v>
+                  <c:v>1.795929506138829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1760229093452628</c:v>
+                  <c:v>2.1101315487036048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.709498461426227</c:v>
+                  <c:v>2.5358337289447967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8868934172996443</c:v>
+                  <c:v>3.0162543020239982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4008278047042175</c:v>
+                  <c:v>3.4628032522544814</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8166320348682623</c:v>
+                  <c:v>3.9886598510463793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2142420332539006</c:v>
+                  <c:v>4.8027337658614275</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9780613812846086</c:v>
+                  <c:v>5.3867230182052168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4928630476135947</c:v>
+                  <c:v>6.4910730255933151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4335950035674392</c:v>
+                  <c:v>7.131740082001456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.991378664462788</c:v>
+                  <c:v>8.4248565380407623</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3812354139671701</c:v>
+                  <c:v>9.5250355959020414</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.006130125674851</c:v>
+                  <c:v>10.216058606644753</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.22678163156302</c:v>
+                  <c:v>10.99211530285708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.973632538324686</c:v>
+                  <c:v>12.767067790595258</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.990156428610145</c:v>
+                  <c:v>14.966487768268605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.457453159940183</c:v>
+                  <c:v>15.90776022624134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.785061660896863</c:v>
+                  <c:v>16.322876505097955</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.15560107244978</c:v>
+                  <c:v>18.985804226697361</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.289000397723111</c:v>
+                  <c:v>19.710639252020918</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.382682329383208</c:v>
+                  <c:v>20.593800341666931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.122023754552337</c:v>
+                  <c:v>22.613934538497798</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.400776245278152</c:v>
+                  <c:v>23.927555039889121</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.448844570625432</c:v>
+                  <c:v>26.731182427071587</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.019182086345467</c:v>
+                  <c:v>28.311774565442985</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.527293261007358</c:v>
+                  <c:v>31.833906832179938</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.448854081409294</c:v>
+                  <c:v>34.39345407546346</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52.446532015951711</c:v>
+                  <c:v>37.908916463548159</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59.397907119433206</c:v>
+                  <c:v>43.464078664892831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7276,100 +7279,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>184.44240029699944</c:v>
+                  <c:v>188.26107090697059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185.96632667530884</c:v>
+                  <c:v>187.42975389915506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.99148289843924</c:v>
+                  <c:v>189.95815389875506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>194.99788930089019</c:v>
+                  <c:v>192.83469553267295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.55978039964725</c:v>
+                  <c:v>194.78291958876983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198.85177190654426</c:v>
+                  <c:v>199.55012331499105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.87155225923919</c:v>
+                  <c:v>200.74593774283636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>206.40550246879238</c:v>
+                  <c:v>203.03091721861776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.19711275055661</c:v>
+                  <c:v>206.43109251922036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>211.6371900529588</c:v>
+                  <c:v>210.5078289536504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213.4843702218725</c:v>
+                  <c:v>212.98270245360794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215.2182637544669</c:v>
+                  <c:v>213.34022353952381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>218.60140555152674</c:v>
+                  <c:v>216.6384565459995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220.93079684094613</c:v>
+                  <c:v>217.96252358349346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225.68205509649104</c:v>
+                  <c:v>219.53542068778918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>228.5343407750085</c:v>
+                  <c:v>219.9062826251816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>230.10017169900178</c:v>
+                  <c:v>221.61612035314636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230.95514773324862</c:v>
+                  <c:v>220.06863035026606</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>229.03487622196073</c:v>
+                  <c:v>218.17449028374105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.34047827393471</c:v>
+                  <c:v>218.32085574468152</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>232.60691450033599</c:v>
+                  <c:v>218.36003863127607</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231.42471627475689</c:v>
+                  <c:v>214.55202552021012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>228.96217368022772</c:v>
+                  <c:v>214.95628176970556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>229.52358636496123</c:v>
+                  <c:v>212.10694962163285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>227.45084220472057</c:v>
+                  <c:v>212.7797811704643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>223.33644116505482</c:v>
+                  <c:v>211.23951163714679</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>219.64423355374387</c:v>
+                  <c:v>205.72304793422038</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>220.10279506265368</c:v>
+                  <c:v>207.85116151552177</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>216.03920998281305</c:v>
+                  <c:v>201.5931121986622</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>214.37409056296667</c:v>
+                  <c:v>200.0423973723837</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>215.77619471112524</c:v>
+                  <c:v>198.30461728895088</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>212.36110302046532</c:v>
+                  <c:v>192.96356147343022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7405,7 +7408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14F575EE-4511-7044-BC6D-9E5951A6CE6E}" type="CELLRANGE">
+                    <a:fld id="{56D91460-BF66-974E-9CB2-2A2CED2CE280}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7438,7 +7441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{228AD695-A805-B146-B84D-9D5AE5E5EA4C}" type="CELLRANGE">
+                    <a:fld id="{1E37BAFD-71E8-F944-8474-D28460AC0FFE}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7472,7 +7475,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73DB89FC-2BAB-F540-8D59-0220000C678F}" type="CELLRANGE">
+                    <a:fld id="{EA69E706-0487-5747-85FB-8A4F11F335BF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7506,7 +7509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CDCDF76-CE5C-8540-A7E4-6689F89CDD76}" type="CELLRANGE">
+                    <a:fld id="{3D2D6D81-AF89-5742-A81E-67D94E69B0BA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7540,7 +7543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88D1BB26-73CA-D845-8245-14D796BDD228}" type="CELLRANGE">
+                    <a:fld id="{E4367195-0789-F749-9DB7-8215B0E46B02}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7574,7 +7577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E076B87-990D-0B49-BD32-D55C8C55B2BD}" type="CELLRANGE">
+                    <a:fld id="{E003A187-39A7-E342-854F-561FA05087F1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7608,7 +7611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C89D58D4-FD15-D140-B39F-7C8901349792}" type="CELLRANGE">
+                    <a:fld id="{2208DE0B-9864-B54E-9582-865519A9652E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7721,25 +7724,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>164.68708362760685</c:v>
+                  <c:v>208.03551469662921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198.80810877201938</c:v>
+                  <c:v>181.37139639284646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.04054189520991</c:v>
+                  <c:v>198.15514824046753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206.45138292973115</c:v>
+                  <c:v>232.59496278432516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180.77517016222109</c:v>
+                  <c:v>171.93196398419323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>216.8863075012203</c:v>
+                  <c:v>149.72115258254127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184.44240029699944</c:v>
+                  <c:v>188.26107090697059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7752,25 +7755,25 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>IT</c:v>
+                    <c:v>PT</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>ES</c:v>
+                    <c:v>IE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>NL</c:v>
+                    <c:v>SK</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>BE</c:v>
+                    <c:v>SI</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>AT</c:v>
+                    <c:v>LU</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>FI</c:v>
+                    <c:v>HR</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>GR</c:v>
+                    <c:v>LT</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7804,7 +7807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69BFADDD-DEF1-7A41-BA13-F2774CD6D2F1}" type="CELLRANGE">
+                    <a:fld id="{6D47F50C-00B9-514B-A010-86F870CFA88C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7837,7 +7840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93F0F4F2-6620-4A49-B187-E7B9F8AEA4F0}" type="CELLRANGE">
+                    <a:fld id="{533936B1-6D06-D24E-84FF-E6B7C200CBFB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7871,7 +7874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B17C42E8-EC7E-8E42-910E-9ECFC44CCD25}" type="CELLRANGE">
+                    <a:fld id="{7289ECB6-B764-014E-9816-39260A9374E7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7905,7 +7908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C24CCED-9636-154A-A48B-2123B56CBAE9}" type="CELLRANGE">
+                    <a:fld id="{7A802789-D695-FD45-A987-8D296F3AA52D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7939,7 +7942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E5CC5D3-5977-FC41-9F88-0157094254F4}" type="CELLRANGE">
+                    <a:fld id="{26F61E5F-B92F-3D46-AC53-509968423686}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7973,7 +7976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB5C61CD-3B55-BF4D-85DA-9A5E485201FE}" type="CELLRANGE">
+                    <a:fld id="{8A8AC6F3-A052-224B-A2C5-43F1F5E19079}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8007,7 +8010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E33A009-8C76-7B47-AE94-D0269BEAF9F5}" type="CELLRANGE">
+                    <a:fld id="{A2B4D2F9-60FC-EA40-98AD-6C55B44F2AE3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8090,25 +8093,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>47.600339928714533</c:v>
+                  <c:v>45.977394006857459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.550396279522879</c:v>
+                  <c:v>32.624272147959282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.28526729663038</c:v>
+                  <c:v>29.739605371973024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.264361355508406</c:v>
+                  <c:v>32.234283487036457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.480438527860304</c:v>
+                  <c:v>45.244991055798742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.980691008601497</c:v>
+                  <c:v>35.555482969370679</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.448854081409294</c:v>
+                  <c:v>43.464078664892831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8120,25 +8123,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>186.06348130903584</c:v>
+                  <c:v>222.38928107868247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.5566254694933</c:v>
+                  <c:v>204.3840784791507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200.2612600284626</c:v>
+                  <c:v>239.16010213741441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225.72446816473186</c:v>
+                  <c:v>242.59110390209747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.90079914526268</c:v>
+                  <c:v>202.74327051601074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>239.52165522390524</c:v>
+                  <c:v>189.89926257831155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214.37409056296667</c:v>
+                  <c:v>192.96356147343022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8151,25 +8154,25 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="7"/>
                   <c:pt idx="0">
-                    <c:v>IT</c:v>
+                    <c:v>PT</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>ES</c:v>
+                    <c:v>IE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>NL</c:v>
+                    <c:v>SK</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>BE</c:v>
+                    <c:v>SI</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>AT</c:v>
+                    <c:v>LU</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>FI</c:v>
+                    <c:v>HR</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>GR</c:v>
+                    <c:v>LT</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -9239,9 +9242,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="L2:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9253,91 +9254,91 @@
     <row r="2" spans="12:45" x14ac:dyDescent="0.2">
       <c r="P2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>176.76740892416396</v>
+        <v>206.68358443489853</v>
       </c>
       <c r="S2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>185.80778580193214</v>
+        <v>182.78421619132865</v>
       </c>
       <c r="V2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>190.40832877635492</v>
+        <v>223.67271492409532</v>
       </c>
       <c r="Y2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>217.27405830176099</v>
+        <v>218.31420001308004</v>
       </c>
       <c r="AB2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>203.10077684852348</v>
+        <v>192.78375385397436</v>
       </c>
       <c r="AE2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>216.29484699832526</v>
+        <v>177.58514013951731</v>
       </c>
       <c r="AH2" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_0_a + TestData.Y_0_b*(2*RAND() - 1)</f>
-        <v>207.29056247060853</v>
+        <v>180.67519036849896</v>
       </c>
     </row>
     <row r="3" spans="12:45" x14ac:dyDescent="0.2">
       <c r="P3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>73.657565263349625</v>
+        <v>94.480835859568586</v>
       </c>
       <c r="S3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>93.142089724945805</v>
+        <v>86.887568465568435</v>
       </c>
       <c r="V3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>62.761356898578953</v>
+        <v>58.570170088206027</v>
       </c>
       <c r="Y3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>67.20572263747718</v>
+        <v>96.339762373970899</v>
       </c>
       <c r="AB3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>51.127341206393695</v>
+        <v>57.57804078030086</v>
       </c>
       <c r="AE3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>87.866995907820112</v>
+        <v>62.411600641668954</v>
       </c>
       <c r="AH3" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_1_a + TestData.Y_1_b*(2*RAND() - 1)</f>
-        <v>58.516677249551933</v>
+        <v>84.841309593188328</v>
       </c>
     </row>
     <row r="4" spans="12:45" x14ac:dyDescent="0.2">
       <c r="P4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-99.626251446535861</v>
+        <v>-105.74987241375493</v>
       </c>
       <c r="S4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-88.303981911251583</v>
+        <v>-99.719813827174505</v>
       </c>
       <c r="V4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-101.8029555525721</v>
+        <v>-96.834629445618774</v>
       </c>
       <c r="Y4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-88.547711149081266</v>
+        <v>-90.578458163599876</v>
       </c>
       <c r="AB4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-86.34694147856905</v>
+        <v>-90.677107320367782</v>
       </c>
       <c r="AE4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-97.594896897457815</v>
+        <v>-103.10080740109656</v>
       </c>
       <c r="AH4" s="1">
         <f ca="1" xml:space="preserve"> TestData.Y_2_a + TestData.Y_2_b*(2*RAND() - 1)</f>
-        <v>-93.161558371542768</v>
+        <v>-89.516205535369807</v>
       </c>
     </row>
     <row r="6" spans="12:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9372,31 +9373,31 @@
       </c>
       <c r="P7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(P$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>IT</v>
+        <v>PT</v>
       </c>
       <c r="S7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="S7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(S$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>ES</v>
+        <v>IE</v>
       </c>
       <c r="V7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="V7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(V$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>NL</v>
+        <v>SK</v>
       </c>
       <c r="Y7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="Y7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(Y$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>BE</v>
+        <v>SI</v>
       </c>
       <c r="AB7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="AB7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(AB$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>AT</v>
+        <v>LU</v>
       </c>
       <c r="AE7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="AE7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(AE$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>FI</v>
+        <v>HR</v>
       </c>
       <c r="AH7" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="AH7" ca="1" xml:space="preserve"> INDEX(SeriesFormatAlias.SeriesName, MOD(TestData.SeriesNameNumFirst + MID(AH$6,10,2) - 1 - TestData.SeriesNameNumMin, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin) + TestData.SeriesNameNumMin)</f>
-        <v>GR</v>
+        <v>LT</v>
       </c>
     </row>
     <row r="9" spans="12:45" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9477,49 +9478,49 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ref="P10:P34" ca="1" si="0" xml:space="preserve"> P$2 + P$3*EXP(- O10 / TestData.Z_1) + P$4*EXP(- O10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>164.68708362760685</v>
+        <v>208.03551469662921</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ref="S10:S34" ca="1" si="1" xml:space="preserve"> S$2 + S$3*EXP(- R10 / TestData.Z_1) + S$4*EXP(- R10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>198.80810877201938</v>
+        <v>181.37139639284646</v>
       </c>
       <c r="U10" s="1">
         <v>1</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" ref="V10:V34" ca="1" si="2" xml:space="preserve"> V$2 + V$3*EXP(- U10 / TestData.Z_1) + V$4*EXP(- U10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>166.04054189520991</v>
+        <v>198.15514824046753</v>
       </c>
       <c r="X10" s="1">
         <v>1</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ref="Y10:Y34" ca="1" si="3" xml:space="preserve"> Y$2 + Y$3*EXP(- X10 / TestData.Z_1) + Y$4*EXP(- X10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>206.45138292973115</v>
+        <v>232.59496278432516</v>
       </c>
       <c r="AA10" s="1">
         <v>1</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" ref="AB10:AB34" ca="1" si="4" xml:space="preserve"> AB$2 + AB$3*EXP(- AA10 / TestData.Z_1) + AB$4*EXP(- AA10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>180.77517016222109</v>
+        <v>171.93196398419323</v>
       </c>
       <c r="AD10" s="1">
         <v>1</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" ref="AE10:AE34" ca="1" si="5" xml:space="preserve"> AE$2 + AE$3*EXP(- AD10 / TestData.Z_1) + AE$4*EXP(- AD10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>216.8863075012203</v>
+        <v>149.72115258254127</v>
       </c>
       <c r="AG10" s="1">
         <v>1</v>
       </c>
       <c r="AH10" s="1">
         <f t="shared" ref="AH10:AH41" ca="1" si="6" xml:space="preserve"> AH$2 + AH$3*EXP(- AG10 / TestData.Z_1) + AH$4*EXP(- AG10 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>184.44240029699944</v>
+        <v>188.26107090697059</v>
       </c>
       <c r="AJ10" s="1" cm="1">
         <f t="array" ref="AJ10" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -9527,7 +9528,7 @@
       </c>
       <c r="AN10" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.01Name</f>
-        <v>IT</v>
+        <v>PT</v>
       </c>
       <c r="AO10" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.01X,"&gt;="&amp;TestData.MinX,   TestData.01X,"&lt;="&amp;TestData.MaxX,   TestData.01Y,"&gt;="&amp;TestData.MinY,   TestData.01Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -9539,15 +9540,15 @@
       </c>
       <c r="AQ10" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.01X,   TestData.01X,"&gt;="&amp;TestData.MinX,   TestData.01X,"&lt;="&amp;TestData.MaxX,   TestData.01Y,"&gt;="&amp;TestData.MinY,   TestData.01Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>47.600339928714533</v>
+        <v>45.977394006857459</v>
       </c>
       <c r="AR10" s="4" cm="1">
         <f t="array" aca="1" ref="AR10" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.01Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.01Y,"&gt;="&amp;TestData.MinY,    TestData.01Y,"&lt;="&amp;TestData.MaxY,   TestData.01X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>164.68708362760685</v>
+        <v>208.03551469662921</v>
       </c>
       <c r="AS10" s="4" cm="1">
         <f t="array" aca="1" ref="AS10" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.01Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.01Y,"&gt;="&amp;TestData.MinY,    TestData.01Y,"&lt;="&amp;TestData.MaxY,   TestData.01X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>186.06348130903584</v>
+        <v>222.38928107868247</v>
       </c>
     </row>
     <row r="11" spans="12:45" x14ac:dyDescent="0.2">
@@ -9560,59 +9561,59 @@
       </c>
       <c r="O11" s="1">
         <f t="shared" ref="O11:O34" ca="1" si="7" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * O10</f>
-        <v>1.2040985862062057</v>
+        <v>1.2296649962677739</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>166.23909657708575</v>
+        <v>210.49157065883944</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" ref="R11:R34" ca="1" si="8" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * R10</f>
-        <v>1.2761374678307891</v>
+        <v>1.2457001418497928</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>202.1260335039803</v>
+        <v>183.23913227447338</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" ref="U11:U34" ca="1" si="9" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * U10</f>
-        <v>1.2904096362938051</v>
+        <v>1.3385353143718997</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>167.89555786410781</v>
+        <v>201.18001361794435</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" ref="X11:X34" ca="1" si="10" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * X10</f>
-        <v>1.1893575293120395</v>
+        <v>1.33278346236484</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>209.80776545054815</v>
+        <v>236.21079628756306</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" ref="AA11:AA34" ca="1" si="11" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AA10</f>
-        <v>1.3170188919554626</v>
+        <v>1.3029996417463856</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>180.26609790126821</v>
+        <v>175.29316521605008</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" ref="AD11:AD34" ca="1" si="12" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AD10</f>
-        <v>1.2581840240073157</v>
+        <v>1.2876244111486215</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>222.10166712462586</v>
+        <v>155.13610464286893</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" ref="AG11:AG34" ca="1" si="13" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AG10</f>
-        <v>1.2855655843374028</v>
+        <v>1.3080880697639159</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>185.96632667530884</v>
+        <v>187.42975389915506</v>
       </c>
       <c r="AJ11" s="1" cm="1">
         <f t="array" ref="AJ11" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -9620,7 +9621,7 @@
       </c>
       <c r="AN11" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.02Name</f>
-        <v>ES</v>
+        <v>IE</v>
       </c>
       <c r="AO11" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.02X,"&gt;="&amp;TestData.MinX,   TestData.02X,"&lt;="&amp;TestData.MaxX,   TestData.02Y,"&gt;="&amp;TestData.MinY,   TestData.02Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -9632,15 +9633,15 @@
       </c>
       <c r="AQ11" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.02X,   TestData.02X,"&gt;="&amp;TestData.MinX,   TestData.02X,"&lt;="&amp;TestData.MaxX,   TestData.02Y,"&gt;="&amp;TestData.MinY,   TestData.02Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>36.550396279522879</v>
+        <v>32.624272147959282</v>
       </c>
       <c r="AR11" s="4" cm="1">
         <f t="array" aca="1" ref="AR11" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.02Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.02Y,"&gt;="&amp;TestData.MinY,    TestData.02Y,"&lt;="&amp;TestData.MaxY,   TestData.02X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>198.80810877201938</v>
+        <v>181.37139639284646</v>
       </c>
       <c r="AS11" s="4" cm="1">
         <f t="array" aca="1" ref="AS11" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.02Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.02Y,"&gt;="&amp;TestData.MinY,    TestData.02Y,"&lt;="&amp;TestData.MaxY,   TestData.02X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>204.5566254694933</v>
+        <v>204.3840784791507</v>
       </c>
     </row>
     <row r="12" spans="12:45" x14ac:dyDescent="0.2">
@@ -9649,63 +9650,63 @@
       </c>
       <c r="M12" s="1">
         <f ca="1" xml:space="preserve"> IF(TRUE, TestData.SeriesNameNumMin + MOD(INT(NOW()*24*60)*5 - 1, 1 + TestData.SeriesNameNumMax - TestData.SeriesNameNumMin), TestData.SeriesNameNumMin )</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4130219102585024</v>
+        <v>1.618755742164997</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>167.27411665745552</v>
+        <v>214.77383693955352</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6127795581453042</v>
+        <v>1.6124414363846937</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>204.38675202832127</v>
+        <v>186.42094903752968</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4930746973604851</v>
+        <v>1.5300089426387358</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>171.13343507838593</v>
+        <v>203.09345981780166</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3712546190392481</v>
+        <v>1.7148614406288727</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>210.98929473618105</v>
+        <v>239.15603344153504</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5927828470654144</v>
+        <v>1.6515408004407408</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>183.15092057208176</v>
+        <v>178.47281879339678</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.5317755844175154</v>
+        <v>1.5008411611753876</v>
       </c>
       <c r="AE12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>225.0086769691016</v>
+        <v>157.57010772822397</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5742788013275357</v>
+        <v>1.5864836003459952</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>189.99148289843924</v>
+        <v>189.95815389875506</v>
       </c>
       <c r="AJ12" s="1" cm="1">
         <f t="array" ref="AJ12" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -9713,7 +9714,7 @@
       </c>
       <c r="AN12" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.03Name</f>
-        <v>NL</v>
+        <v>SK</v>
       </c>
       <c r="AO12" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.03X,"&gt;="&amp;TestData.MinX,   TestData.03X,"&lt;="&amp;TestData.MaxX,   TestData.03Y,"&gt;="&amp;TestData.MinY,   TestData.03Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -9725,15 +9726,15 @@
       </c>
       <c r="AQ12" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.03X,   TestData.03X,"&gt;="&amp;TestData.MinX,   TestData.03X,"&lt;="&amp;TestData.MaxX,   TestData.03Y,"&gt;="&amp;TestData.MinY,   TestData.03Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>44.28526729663038</v>
+        <v>29.739605371973024</v>
       </c>
       <c r="AR12" s="4" cm="1">
         <f t="array" aca="1" ref="AR12" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.03Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.03Y,"&gt;="&amp;TestData.MinY,    TestData.03Y,"&lt;="&amp;TestData.MaxY,   TestData.03X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>166.04054189520991</v>
+        <v>198.15514824046753</v>
       </c>
       <c r="AS12" s="4" cm="1">
         <f t="array" aca="1" ref="AS12" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.03Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.03Y,"&gt;="&amp;TestData.MinY,    TestData.03Y,"&lt;="&amp;TestData.MaxY,   TestData.03X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>200.2612600284626</v>
+        <v>239.16010213741441</v>
       </c>
     </row>
     <row r="13" spans="12:45" x14ac:dyDescent="0.2">
@@ -9745,59 +9746,59 @@
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6003518273101891</v>
+        <v>1.9860367431851549</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>171.23938324653955</v>
+        <v>216.01305824864548</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8150257259498428</v>
+        <v>2.0278870196723946</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>208.66836334340289</v>
+        <v>190.88346232032833</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8789713743845771</v>
+        <v>1.7436794343658948</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>172.44265442611217</v>
+        <v>206.079050888273</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5650762015515101</v>
+        <v>2.0238599228566687</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>212.20750352714921</v>
+        <v>243.86409039963837</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8220556590424579</v>
+        <v>2.0518247937912366</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>188.10937661206788</v>
+        <v>180.87026224979977</v>
       </c>
       <c r="AD13" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1.7873104171454697</v>
+        <v>1.7697749938705178</v>
       </c>
       <c r="AE13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>226.13903324690727</v>
+        <v>156.93633189163128</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9202978974386689</v>
+        <v>1.795929506138829</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>194.99788930089019</v>
+        <v>192.83469553267295</v>
       </c>
       <c r="AJ13" s="1" cm="1">
         <f t="array" ref="AJ13" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -9805,7 +9806,7 @@
       </c>
       <c r="AN13" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.04Name</f>
-        <v>BE</v>
+        <v>SI</v>
       </c>
       <c r="AO13" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.04X,"&gt;="&amp;TestData.MinX,   TestData.04X,"&lt;="&amp;TestData.MaxX,   TestData.04Y,"&gt;="&amp;TestData.MinY,   TestData.04Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -9817,15 +9818,15 @@
       </c>
       <c r="AQ13" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.04X,   TestData.04X,"&gt;="&amp;TestData.MinX,   TestData.04X,"&lt;="&amp;TestData.MaxX,   TestData.04Y,"&gt;="&amp;TestData.MinY,   TestData.04Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>46.264361355508406</v>
+        <v>32.234283487036457</v>
       </c>
       <c r="AR13" s="4" cm="1">
         <f t="array" aca="1" ref="AR13" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.04Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.04Y,"&gt;="&amp;TestData.MinY,    TestData.04Y,"&lt;="&amp;TestData.MaxY,   TestData.04X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>206.45138292973115</v>
+        <v>232.59496278432516</v>
       </c>
       <c r="AS13" s="4" cm="1">
         <f t="array" aca="1" ref="AS13" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.04Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.04Y,"&gt;="&amp;TestData.MinY,    TestData.04Y,"&lt;="&amp;TestData.MaxY,   TestData.04X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>225.72446816473186</v>
+        <v>242.59110390209747</v>
       </c>
     </row>
     <row r="14" spans="12:45" x14ac:dyDescent="0.2">
@@ -9837,59 +9838,59 @@
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8113956170059111</v>
+        <v>2.4283124649275263</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>170.25758525507058</v>
+        <v>222.06142332840219</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0388970240125039</v>
+        <v>2.3361062027249622</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>210.12020705809493</v>
+        <v>194.78618650882504</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0845115646270109</v>
+        <v>2.1215947604470426</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>174.05809235547835</v>
+        <v>207.48430343857856</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7995523593754359</v>
+        <v>2.4858753053911395</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>215.43626553932921</v>
+        <v>247.03402663160352</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.0315371549938805</v>
+        <v>2.346874750133511</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>190.43933779988856</v>
+        <v>185.67117689633932</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.0201279996450112</v>
+        <v>2.2048794070643596</v>
       </c>
       <c r="AE14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>228.50446726539741</v>
+        <v>162.73771445007162</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1760229093452628</v>
+        <v>2.1101315487036048</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>196.55978039964725</v>
+        <v>194.78291958876983</v>
       </c>
       <c r="AJ14" s="1" cm="1">
         <f t="array" ref="AJ14" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -9897,7 +9898,7 @@
       </c>
       <c r="AN14" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.05Name</f>
-        <v>AT</v>
+        <v>LU</v>
       </c>
       <c r="AO14" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.05X,"&gt;="&amp;TestData.MinX,   TestData.05X,"&lt;="&amp;TestData.MaxX,   TestData.05Y,"&gt;="&amp;TestData.MinY,   TestData.05Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -9909,15 +9910,15 @@
       </c>
       <c r="AQ14" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.05X,   TestData.05X,"&gt;="&amp;TestData.MinX,   TestData.05X,"&lt;="&amp;TestData.MaxX,   TestData.05Y,"&gt;="&amp;TestData.MinY,   TestData.05Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>25.480438527860304</v>
+        <v>45.244991055798742</v>
       </c>
       <c r="AR14" s="4" cm="1">
         <f t="array" aca="1" ref="AR14" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.05Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.05Y,"&gt;="&amp;TestData.MinY,    TestData.05Y,"&lt;="&amp;TestData.MaxY,   TestData.05X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>180.77517016222109</v>
+        <v>171.93196398419323</v>
       </c>
       <c r="AS14" s="4" cm="1">
         <f t="array" aca="1" ref="AS14" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.05Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.05Y,"&gt;="&amp;TestData.MinY,    TestData.05Y,"&lt;="&amp;TestData.MaxY,   TestData.05X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>220.90079914526268</v>
+        <v>202.74327051601074</v>
       </c>
     </row>
     <row r="15" spans="12:45" x14ac:dyDescent="0.2">
@@ -9929,59 +9930,59 @@
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0741529739886544</v>
+        <v>2.9029805338793748</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>174.7646852965199</v>
+        <v>226.89551397775435</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5165436361896476</v>
+        <v>2.5626233868950785</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>213.2686733356046</v>
+        <v>197.38105236331299</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3430222756947994</v>
+        <v>2.4407678027156692</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>176.88544937703708</v>
+        <v>213.28817139160077</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1458309844293959</v>
+        <v>2.8375155890795241</v>
       </c>
       <c r="Y15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>217.85832669675935</v>
+        <v>245.8960294225158</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5431085287493755</v>
+        <v>2.868120459533448</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>190.63890387455231</v>
+        <v>185.66048301323619</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.4364147808033354</v>
+        <v>2.6212426692654378</v>
       </c>
       <c r="AE15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>230.6223189893411</v>
+        <v>166.87326981623232</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.709498461426227</v>
+        <v>2.5358337289447967</v>
       </c>
       <c r="AH15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>198.85177190654426</v>
+        <v>199.55012331499105</v>
       </c>
       <c r="AJ15" s="1" cm="1">
         <f t="array" ref="AJ15" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -9989,7 +9990,7 @@
       </c>
       <c r="AN15" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.06Name</f>
-        <v>FI</v>
+        <v>HR</v>
       </c>
       <c r="AO15" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.06X,"&gt;="&amp;TestData.MinX,   TestData.06X,"&lt;="&amp;TestData.MaxX,   TestData.06Y,"&gt;="&amp;TestData.MinY,   TestData.06Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -10001,15 +10002,15 @@
       </c>
       <c r="AQ15" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.06X,   TestData.06X,"&gt;="&amp;TestData.MinX,   TestData.06X,"&lt;="&amp;TestData.MaxX,   TestData.06Y,"&gt;="&amp;TestData.MinY,   TestData.06Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>30.980691008601497</v>
+        <v>35.555482969370679</v>
       </c>
       <c r="AR15" s="4" cm="1">
         <f t="array" aca="1" ref="AR15" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.06Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.06Y,"&gt;="&amp;TestData.MinY,    TestData.06Y,"&lt;="&amp;TestData.MaxY,   TestData.06X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>216.8863075012203</v>
+        <v>149.72115258254127</v>
       </c>
       <c r="AS15" s="4" cm="1">
         <f t="array" aca="1" ref="AS15" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.06Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.06Y,"&gt;="&amp;TestData.MinY,    TestData.06Y,"&lt;="&amp;TestData.MaxY,   TestData.06X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>239.52165522390524</v>
+        <v>189.89926257831155</v>
       </c>
     </row>
     <row r="16" spans="12:45" x14ac:dyDescent="0.2">
@@ -10021,59 +10022,59 @@
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2.5255595211790354</v>
+        <v>3.5426244234734536</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>177.75410112941404</v>
+        <v>230.96297780033689</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9841348332850228</v>
+        <v>3.160828650399587</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>212.76546164054412</v>
+        <v>198.09911876169406</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6200615973888426</v>
+        <v>2.9468004244810242</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>181.53902347937611</v>
+        <v>216.18720556764379</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5545928198926715</v>
+        <v>3.4734498939297165</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>220.39898162761099</v>
+        <v>250.84124718725707</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0842217810659225</v>
+        <v>3.2958113162601443</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>197.94283562212544</v>
+        <v>190.75415087254922</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2.9544141127183399</v>
+        <v>3.0505287735597726</v>
       </c>
       <c r="AE16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>232.60755393910293</v>
+        <v>171.42591442335311</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2.8868934172996443</v>
+        <v>3.0162543020239982</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>201.87155225923919</v>
+        <v>200.74593774283636</v>
       </c>
       <c r="AJ16" s="1" cm="1">
         <f t="array" ref="AJ16" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10081,7 +10082,7 @@
       </c>
       <c r="AN16" s="4" t="str">
         <f ca="1" xml:space="preserve"> TestData.07Name</f>
-        <v>GR</v>
+        <v>LT</v>
       </c>
       <c r="AO16" s="4" t="b">
         <f ca="1" xml:space="preserve">  ( COUNTIFS(TestData.07X,"&gt;="&amp;TestData.MinX,   TestData.07X,"&lt;="&amp;TestData.MaxX,   TestData.07Y,"&gt;="&amp;TestData.MinY,   TestData.07Y,"&lt;="&amp;TestData.MaxY) &gt; 0 )</f>
@@ -10093,15 +10094,15 @@
       </c>
       <c r="AQ16" s="4">
         <f ca="1" xml:space="preserve"> IF(TestData_Labels.Good, _xlfn.MAXIFS(TestData.07X,   TestData.07X,"&gt;="&amp;TestData.MinX,   TestData.07X,"&lt;="&amp;TestData.MaxX,   TestData.07Y,"&gt;="&amp;TestData.MinY,   TestData.07Y,"&lt;="&amp;TestData.MaxY), #N/A)</f>
-        <v>46.448854081409294</v>
+        <v>43.464078664892831</v>
       </c>
       <c r="AR16" s="4" cm="1">
         <f t="array" aca="1" ref="AR16" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Good), INDEX(TestData.07Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.07Y,"&gt;="&amp;TestData.MinY,    TestData.07Y,"&lt;="&amp;TestData.MaxY,   TestData.07X,_xlfn.SINGLE(TestData_Labels.Left_X))), #N/A)</f>
-        <v>184.44240029699944</v>
+        <v>188.26107090697059</v>
       </c>
       <c r="AS16" s="4" cm="1">
         <f t="array" aca="1" ref="AS16" ca="1" xml:space="preserve"> IF(_xlfn.SINGLE(TestData_Labels.Right_X) &gt; _xlfn.SINGLE(TestData_Labels.Left_X), INDEX(TestData.07Y, _xlfn.MAXIFS(TestData.RowNum,    TestData.07Y,"&gt;="&amp;TestData.MinY,    TestData.07Y,"&lt;="&amp;TestData.MaxY,   TestData.07X,_xlfn.SINGLE(TestData_Labels.Right_X))), #N/A)</f>
-        <v>214.37409056296667</v>
+        <v>192.96356147343022</v>
       </c>
     </row>
     <row r="17" spans="12:36" x14ac:dyDescent="0.2">
@@ -10113,59 +10114,59 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.0510394135957064</v>
+        <v>3.7893571201095559</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>181.95098402633263</v>
+        <v>233.06001242506352</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5490249456242293</v>
+        <v>3.7329020399860435</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>217.8867193099131</v>
+        <v>202.48686631111497</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3.2209376247457557</v>
+        <v>3.1437921449289963</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>184.02230133246783</v>
+        <v>219.00426710172303</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2.8796822582716328</v>
+        <v>3.7487342330412163</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>221.59553198904311</v>
+        <v>253.442768419527</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.3729095851004725</v>
+        <v>4.0267240438410683</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>198.33867821255021</v>
+        <v>196.33843366360034</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.1881005996234411</v>
+        <v>3.722170983074327</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>237.80522111935196</v>
+        <v>175.78904227204916</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4008278047042175</v>
+        <v>3.4628032522544814</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>206.40550246879238</v>
+        <v>203.03091721861776</v>
       </c>
       <c r="AJ17" s="1" cm="1">
         <f t="array" ref="AJ17" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10181,59 +10182,59 @@
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5482240745657236</v>
+        <v>4.1799133070777703</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>185.05535184571818</v>
+        <v>231.96402563607472</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.9099851603055455</v>
+        <v>4.2791005952798731</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>219.66202827036003</v>
+        <v>206.90233837098381</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3.8933151131265755</v>
+        <v>3.5448408660406887</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>189.69976337093814</v>
+        <v>221.29558527665617</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3313516641824421</v>
+        <v>4.5132334905565017</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>224.01143448737048</v>
+        <v>253.49791995623883</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3.7669597858535164</v>
+        <v>4.7329028467817036</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>199.51228910303263</v>
+        <v>199.31695709835438</v>
       </c>
       <c r="AD18" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.5030999729132541</v>
+        <v>3.9349036524349432</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>236.18489397214245</v>
+        <v>175.76794315387266</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3.8166320348682623</v>
+        <v>3.9886598510463793</v>
       </c>
       <c r="AH18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>209.19711275055661</v>
+        <v>206.43109251922036</v>
       </c>
       <c r="AJ18" s="1" cm="1">
         <f t="array" ref="AJ18" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10249,59 +10250,59 @@
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1178292227629028</v>
+        <v>4.8054365087881692</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>190.25886692407394</v>
+        <v>238.18996132838348</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4.5258204715379282</v>
+        <v>4.9448788540523392</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>219.90388487872721</v>
+        <v>211.05619066623626</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4.141595720020951</v>
+        <v>3.9961504433840389</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>192.49124867086755</v>
+        <v>222.01301198589664</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4.052524765355968</v>
+        <v>4.924508600259518</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>228.60760606245094</v>
+        <v>256.40897337585744</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0985239714355908</v>
+        <v>5.2880132672214675</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>200.62727864075657</v>
+        <v>203.06425815644735</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3.8791495327800485</v>
+        <v>4.4159886198407081</v>
       </c>
       <c r="AE19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>239.13121731150591</v>
+        <v>181.36556194953619</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2142420332539006</v>
+        <v>4.8027337658614275</v>
       </c>
       <c r="AH19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>211.6371900529588</v>
+        <v>210.5078289536504</v>
       </c>
       <c r="AJ19" s="1" cm="1">
         <f t="array" ref="AJ19" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10317,59 +10318,59 @@
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4.3903932714099927</v>
+        <v>5.135422344819613</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>192.13255813590129</v>
+        <v>237.31663456735166</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1650054692758864</v>
+        <v>5.6357328391208004</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>224.27644490020938</v>
+        <v>210.56227512042395</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4.674393482824498</v>
+        <v>4.5482177172274918</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>193.92569185489435</v>
+        <v>225.67872724381431</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4.8738176564213793</v>
+        <v>5.3190393613623002</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>232.02727692861509</v>
+        <v>259.79978840274828</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7032940746935807</v>
+        <v>5.8944490877580034</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>207.02226227322913</v>
+        <v>202.61655784309707</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4.6485054372251398</v>
+        <v>5.1824214677799789</v>
       </c>
       <c r="AE20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>242.0762752626211</v>
+        <v>183.64643556811987</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9780613812846086</v>
+        <v>5.3867230182052168</v>
       </c>
       <c r="AH20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>213.4843702218725</v>
+        <v>212.98270245360794</v>
       </c>
       <c r="AJ20" s="1" cm="1">
         <f t="array" ref="AJ20" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10385,59 +10386,59 @@
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1690804813961169</v>
+        <v>5.9693673295027638</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>193.34504346858313</v>
+        <v>242.41069963071351</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5904576802344819</v>
+        <v>5.9175090312081471</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>223.54873803608569</v>
+        <v>214.86208245103191</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3637616949641895</v>
+        <v>5.0488312031740286</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>197.58171953505791</v>
+        <v>228.11315617204923</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5.4490300444130773</v>
+        <v>5.9203563698068224</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>236.27131033633603</v>
+        <v>261.75876857531199</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0625206396556477</v>
+        <v>6.1867592296056513</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>208.5776813654594</v>
+        <v>205.18156533275237</v>
       </c>
       <c r="AD21" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.0016507286370686</v>
+        <v>5.9231717211091928</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>244.78771063513378</v>
+        <v>187.36884296998068</v>
       </c>
       <c r="AG21" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4928630476135947</v>
+        <v>6.4910730255933151</v>
       </c>
       <c r="AH21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>215.2182637544669</v>
+        <v>213.34022353952381</v>
       </c>
       <c r="AJ21" s="1" cm="1">
         <f t="array" ref="AJ21" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10453,59 +10454,59 @@
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4366468816630134</v>
+        <v>6.6564979599714782</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>194.48104563123499</v>
+        <v>241.783398711925</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.2055254613429875</v>
+        <v>6.2875017073862747</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>225.47798850691987</v>
+        <v>215.84741732956917</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1153848129850568</v>
+        <v>5.4725752093181743</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>201.20614046907315</v>
+        <v>233.00152248279329</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5018841103010478</v>
+        <v>6.2475577333538199</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>236.99545747654147</v>
+        <v>261.14079492965988</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2980609050108454</v>
+        <v>6.3654927722986354</v>
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>206.46686655477373</v>
+        <v>205.5318515971482</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.4897016925305113</v>
+        <v>6.7072714241372253</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>245.77090548489977</v>
+        <v>191.5039107610765</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6.4335950035674392</v>
+        <v>7.131740082001456</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>218.60140555152674</v>
+        <v>216.6384565459995</v>
       </c>
       <c r="AJ22" s="1" cm="1">
         <f t="array" ref="AJ22" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10518,59 +10519,59 @@
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.0237351596028201</v>
+        <v>7.0571419235543011</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>198.21464829117957</v>
+        <v>244.50266789026864</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5440764088788788</v>
+        <v>6.7544195514121226</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>225.52680324190021</v>
+        <v>214.41702983974125</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2479575501164213</v>
+        <v>6.1013053220788889</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>206.32488122238345</v>
+        <v>233.51290258772727</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7355506266086032</v>
+        <v>6.6505087938588181</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>240.38101302223788</v>
+        <v>260.78984131722086</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7302146297421297</v>
+        <v>6.9675466374838022</v>
       </c>
       <c r="AB23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>209.80334398811959</v>
+        <v>207.33086374671234</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.6745791419488336</v>
+        <v>7.3748464055398433</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>248.58990552370508</v>
+        <v>195.26468184488027</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6.991378664462788</v>
+        <v>8.4248565380407623</v>
       </c>
       <c r="AH23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>220.93079684094613</v>
+        <v>217.96252358349346</v>
       </c>
       <c r="AJ23" s="1" cm="1">
         <f t="array" ref="AJ23" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10580,59 +10581,59 @@
     <row r="24" spans="12:36" x14ac:dyDescent="0.2">
       <c r="O24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6.8556533777732884</v>
+        <v>7.5559492925897187</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>199.98206212203581</v>
+        <v>244.69950814530714</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5422953957767422</v>
+        <v>7.3518424000440987</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>229.22694265919128</v>
+        <v>219.14141548404021</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8930322483599946</v>
+        <v>6.9590511967918207</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>210.17478749926977</v>
+        <v>236.45885217532461</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7.9668248836721656</v>
+        <v>7.663485242589128</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>241.43840755508137</v>
+        <v>261.95072692658965</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6.6479873685499484</v>
+        <v>7.5991681809638187</v>
       </c>
       <c r="AB24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>213.5566008377501</v>
+        <v>207.74044786395208</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6.3004309833210073</v>
+        <v>8.7025488474866606</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>251.37689523375491</v>
+        <v>198.00288766712333</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8.3812354139671701</v>
+        <v>9.5250355959020414</v>
       </c>
       <c r="AH24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>225.68205509649104</v>
+        <v>219.53542068778918</v>
       </c>
       <c r="AJ24" s="1" cm="1">
         <f t="array" ref="AJ24" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10642,59 +10643,59 @@
     <row r="25" spans="12:36" x14ac:dyDescent="0.2">
       <c r="O25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2087455076728855</v>
+        <v>7.9804895907291851</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>202.89606589770503</v>
+        <v>245.47214418562436</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5595761399043564</v>
+        <v>7.5602468581857396</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>229.36400447974628</v>
+        <v>217.71454859631001</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8659707389434637</v>
+        <v>7.8368054813713481</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>211.92697193740082</v>
+        <v>240.49202842249218</v>
       </c>
       <c r="X25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9.0174611411098979</v>
+        <v>8.5951664452981316</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>242.05033778744277</v>
+        <v>264.98267355238363</v>
       </c>
       <c r="AA25" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7.4304956687490931</v>
+        <v>7.9927861977749384</v>
       </c>
       <c r="AB25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>214.89372313907955</v>
+        <v>212.0208421608958</v>
       </c>
       <c r="AD25" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6.7038782071349328</v>
+        <v>9.4607429970849655</v>
       </c>
       <c r="AE25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>249.57400734412602</v>
+        <v>197.63229598179353</v>
       </c>
       <c r="AG25" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>10.006130125674851</v>
+        <v>10.216058606644753</v>
       </c>
       <c r="AH25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>228.5343407750085</v>
+        <v>219.9062826251816</v>
       </c>
       <c r="AJ25" s="1" cm="1">
         <f t="array" ref="AJ25" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10707,59 +10708,59 @@
       </c>
       <c r="O26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.4656882763363583</v>
+        <v>9.4845149127252366</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>203.52763950610168</v>
+        <v>249.01461767600665</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8.8661343661055732</v>
+        <v>7.993794310672401</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>229.08983537948333</v>
+        <v>216.75725612924262</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>10.569751607002214</v>
+        <v>8.5304275230259776</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>212.35150292177468</v>
+        <v>241.25628649721423</v>
       </c>
       <c r="X26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>10.017344002012498</v>
+        <v>8.93371625856207</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>244.82474735170797</v>
+        <v>263.99116133317023</v>
       </c>
       <c r="AA26" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8.6672285730687424</v>
+        <v>9.5167959392731092</v>
       </c>
       <c r="AB26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>219.6302985829104</v>
+        <v>212.21006271967715</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7.1495599383498138</v>
+        <v>10.596908096479897</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>253.00764821152509</v>
+        <v>201.71560264805677</v>
       </c>
       <c r="AG26" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>10.22678163156302</v>
+        <v>10.99211530285708</v>
       </c>
       <c r="AH26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>230.10017169900178</v>
+        <v>221.61612035314636</v>
       </c>
       <c r="AJ26" s="1" cm="1">
         <f t="array" ref="AJ26" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10769,59 +10770,59 @@
     <row r="27" spans="12:36" x14ac:dyDescent="0.2">
       <c r="O27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7476115174597879</v>
+        <v>11.121305198641242</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>204.6128879613465</v>
+        <v>247.86388673011803</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6038357117444129</v>
+        <v>9.1688178883964824</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>232.28883760773175</v>
+        <v>219.26031242574373</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>12.151304277479841</v>
+        <v>9.8172799808506213</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>212.83150531121268</v>
+        <v>242.99939063958027</v>
       </c>
       <c r="X27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>10.724391435736431</v>
+        <v>9.1602258996545807</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>244.34301544761126</v>
+        <v>263.07676512534476</v>
       </c>
       <c r="AA27" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4462042572873752</v>
+        <v>10.981248932617707</v>
       </c>
       <c r="AB27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>221.00296739353425</v>
+        <v>213.79532959687626</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8.1639366288219275</v>
+        <v>11.437186069818408</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>255.25408841895333</v>
+        <v>199.90353930517699</v>
       </c>
       <c r="AG27" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>10.973632538324686</v>
+        <v>12.767067790595258</v>
       </c>
       <c r="AH27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>230.95514773324862</v>
+        <v>220.06863035026606</v>
       </c>
       <c r="AJ27" s="1" cm="1">
         <f t="array" ref="AJ27" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10834,59 +10835,59 @@
       </c>
       <c r="O28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10.133305064023924</v>
+        <v>13.158271012075652</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>207.25009093146971</v>
+        <v>248.86796465380002</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8853035599023684</v>
+        <v>9.888809536473202</v>
       </c>
       <c r="S28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>231.61050991707569</v>
+        <v>219.36318061065523</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>13.683764353420582</v>
+        <v>11.500590830997149</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>213.60076237186894</v>
+        <v>246.83435741414362</v>
       </c>
       <c r="X28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>11.469731957347086</v>
+        <v>10.269646109001929</v>
       </c>
       <c r="Y28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>244.40515131619384</v>
+        <v>263.5812822671744</v>
       </c>
       <c r="AA28" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9.977972080723351</v>
+        <v>11.587846995386201</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>222.21019503319897</v>
+        <v>214.59613389062875</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9.7380987770571057</v>
+        <v>13.48368538431626</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>253.70226855294516</v>
+        <v>202.95954338806655</v>
       </c>
       <c r="AG28" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>12.990156428610145</v>
+        <v>14.966487768268605</v>
       </c>
       <c r="AH28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>229.03487622196073</v>
+        <v>218.17449028374105</v>
       </c>
       <c r="AJ28" s="1" cm="1">
         <f t="array" ref="AJ28" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10911,59 +10912,59 @@
       <c r="N29" s="6"/>
       <c r="O29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>11.283695983837134</v>
+        <v>14.967343297895287</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>208.92296635184042</v>
+        <v>247.95470729033048</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>10.948052426571744</v>
+        <v>11.333153738040412</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>232.3216299296723</v>
+        <v>223.62353594062608</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>15.426587693725498</v>
+        <v>11.795637419280343</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>214.36612699926857</v>
+        <v>246.49171921687821</v>
       </c>
       <c r="X29" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>12.862241413683087</v>
+        <v>10.535622991149152</v>
       </c>
       <c r="Y29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>246.93366762297418</v>
+        <v>266.41781525250678</v>
       </c>
       <c r="AA29" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>10.263809241443123</v>
+        <v>12.344027214824033</v>
       </c>
       <c r="AB29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>219.10682393102957</v>
+        <v>214.39987434850195</v>
       </c>
       <c r="AD29" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>11.272120593701425</v>
+        <v>14.525347071479775</v>
       </c>
       <c r="AE29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>255.36208421967444</v>
+        <v>203.32201620888824</v>
       </c>
       <c r="AG29" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>14.457453159940183</v>
+        <v>15.90776022624134</v>
       </c>
       <c r="AH29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>232.34047827393471</v>
+        <v>218.32085574468152</v>
       </c>
       <c r="AJ29" s="1" cm="1">
         <f t="array" ref="AJ29" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -10976,63 +10977,63 @@
       </c>
       <c r="M30" s="1">
         <f ca="1" xml:space="preserve"> LARGE( (TestData.01X, TestData.02X, TestData.03X, TestData.04X, TestData.05X, TestData.06X, TestData.07X), 2)</f>
-        <v>58.387304791494145</v>
+        <v>45.244991055798742</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>12.452596574027128</v>
+        <v>16.339290842478889</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>209.7535671615945</v>
+        <v>247.22969779083675</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>11.249488781043901</v>
+        <v>12.730443483329909</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>229.20377885881581</v>
+        <v>221.3370334771023</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>18.249292524859289</v>
+        <v>12.282120437804066</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>215.63135669511158</v>
+        <v>246.32975734904051</v>
       </c>
       <c r="X30" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>14.70941896099345</v>
+        <v>10.868104776170764</v>
       </c>
       <c r="Y30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>247.52053692804037</v>
+        <v>263.5017296369403</v>
       </c>
       <c r="AA30" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>11.181695790133158</v>
+        <v>14.142376796193147</v>
       </c>
       <c r="AB30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>223.01693829022472</v>
+        <v>216.40943696345164</v>
       </c>
       <c r="AD30" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>11.989069161126542</v>
+        <v>15.582204455267153</v>
       </c>
       <c r="AE30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>256.22016428026598</v>
+        <v>200.97949885761227</v>
       </c>
       <c r="AG30" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>15.785061660896863</v>
+        <v>16.322876505097955</v>
       </c>
       <c r="AH30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>232.60691450033599</v>
+        <v>218.36003863127607</v>
       </c>
       <c r="AJ30" s="1" cm="1">
         <f t="array" ref="AJ30" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11049,59 +11050,59 @@
       </c>
       <c r="O31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>13.432852159908675</v>
+        <v>17.884051390487855</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>208.08899316569736</v>
+        <v>245.6378467407641</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>12.268763706186252</v>
+        <v>13.742625627472501</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>228.92528029226031</v>
+        <v>222.6053967598348</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>19.014217957921534</v>
+        <v>12.547389469795901</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>212.74738579397484</v>
+        <v>246.18593759200073</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>17.374161273347131</v>
+        <v>12.206034101949607</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>246.05897665730282</v>
+        <v>264.28600228141653</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>12.71976923169265</v>
+        <v>16.283677950478182</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>223.07786510340628</v>
+        <v>214.30734175269745</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>12.388719173342084</v>
+        <v>15.977680567615311</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>257.20123217077474</v>
+        <v>201.76710806526836</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>18.15560107244978</v>
+        <v>18.985804226697361</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>231.42471627475689</v>
+        <v>214.55202552021012</v>
       </c>
       <c r="AJ31" s="1" cm="1">
         <f t="array" ref="AJ31" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11118,59 +11119,59 @@
       </c>
       <c r="O32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>15.781079449276351</v>
+        <v>18.278689772226731</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>208.59790266705951</v>
+        <v>245.84106586651882</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>14.46407727156455</v>
+        <v>14.050952808327114</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>230.50078685259675</v>
+        <v>221.76704552964625</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>20.240384592984686</v>
+        <v>13.84049649337995</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>214.58037265409445</v>
+        <v>248.28947756895386</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>19.262397009578962</v>
+        <v>13.438784171846006</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>244.58753857592393</v>
+        <v>265.17116469736948</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>13.09382841447988</v>
+        <v>19.230214117323033</v>
       </c>
       <c r="AB32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>224.77995656758733</v>
+        <v>214.96446164754278</v>
       </c>
       <c r="AD32" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>14.011363082477926</v>
+        <v>18.208695072404897</v>
       </c>
       <c r="AE32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>256.20833682062118</v>
+        <v>200.24089723125431</v>
       </c>
       <c r="AG32" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>19.289000397723111</v>
+        <v>19.710639252020918</v>
       </c>
       <c r="AH32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>228.96217368022772</v>
+        <v>214.95628176970556</v>
       </c>
       <c r="AJ32" s="1" cm="1">
         <f t="array" ref="AJ32" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11187,59 +11188,59 @@
       </c>
       <c r="O33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>17.75653528049569</v>
+        <v>20.608057098828009</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>208.16989937260323</v>
+        <v>241.99562076120637</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>15.018971607497482</v>
+        <v>16.322381245908677</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>228.82705978473086</v>
+        <v>220.29679488335154</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>23.568473027267256</v>
+        <v>14.7652056926442</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>210.16652281303126</v>
+        <v>246.02163471354774</v>
       </c>
       <c r="X33" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>20.489087194711061</v>
+        <v>14.779733874325359</v>
       </c>
       <c r="Y33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>244.59933517088211</v>
+        <v>261.31054409871047</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>14.15812491774893</v>
+        <v>21.477716197613251</v>
       </c>
       <c r="AB33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>224.07537620810507</v>
+        <v>214.19927975238343</v>
       </c>
       <c r="AD33" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>14.214863520502531</v>
+        <v>19.908231422743729</v>
       </c>
       <c r="AE33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>257.36245232119938</v>
+        <v>199.34514289857918</v>
       </c>
       <c r="AG33" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>21.382682329383208</v>
+        <v>20.593800341666931</v>
       </c>
       <c r="AH33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>229.52358636496123</v>
+        <v>212.10694962163285</v>
       </c>
       <c r="AJ33" s="1" cm="1">
         <f t="array" ref="AJ33" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11252,63 +11253,63 @@
       </c>
       <c r="M34" s="1">
         <f ca="1" xml:space="preserve"> MIN(CEILING(TestData.RawMaxX, TestData.MinorX), 50)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>20.495176694544202</v>
+        <v>23.624861429134654</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>206.25728918044734</v>
+        <v>240.10056456697879</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>16.77505735399285</v>
+        <v>18.943938068434079</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>226.17263483518042</v>
+        <v>218.3765282251166</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>27.44727144776229</v>
+        <v>16.90069504033864</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>210.10602321145487</v>
+        <v>248.68121526046315</v>
       </c>
       <c r="X34" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>22.201682725776735</v>
+        <v>15.613995244429113</v>
       </c>
       <c r="Y34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>242.53147249863312</v>
+        <v>259.97270593129548</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>14.459918431496773</v>
+        <v>23.456496414745676</v>
       </c>
       <c r="AB34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>224.55585898622022</v>
+        <v>214.60301865400297</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>15.501217101669871</v>
+        <v>20.439619577474016</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>253.84656108703626</v>
+        <v>202.76123858718006</v>
       </c>
       <c r="AG34" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>25.122023754552337</v>
+        <v>22.613934538497798</v>
       </c>
       <c r="AH34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>227.45084220472057</v>
+        <v>212.7797811704643</v>
       </c>
       <c r="AJ34" s="1" cm="1">
         <f t="array" ref="AJ34" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11316,9 +11317,9 @@
       </c>
     </row>
     <row r="35" spans="12:36" x14ac:dyDescent="0.2">
-      <c r="M35" s="1" cm="1">
+      <c r="M35" s="1" t="e" cm="1">
         <f t="array" aca="1" ref="M35" ca="1" xml:space="preserve"> axis_scale("Test", "Chart_Test", TRUE, TRUE, TestData.MinX, TestData.MaxX, TestData.MajorX, TestData.MinorX)</f>
-        <v>44928.770138888889</v>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="6" t="str">
         <f xml:space="preserve"> _xlfn.UNICHAR(10232) &amp; " "</f>
@@ -11326,59 +11327,59 @@
       </c>
       <c r="O35" s="1">
         <f t="shared" ref="O35:O40" ca="1" si="14" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * O34</f>
-        <v>23.30213939561396</v>
+        <v>25.19445924955463</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ref="P35:P40" ca="1" si="15" xml:space="preserve"> P$2 + P$3*EXP(- O35 / TestData.Z_1) + P$4*EXP(- O35 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>203.93771197117553</v>
+        <v>236.48945012038649</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" ref="R35:R40" ca="1" si="16" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * R34</f>
-        <v>19.405106244405246</v>
+        <v>20.951512360655173</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" ref="S35:S40" ca="1" si="17" xml:space="preserve"> S$2 + S$3*EXP(- R35 / TestData.Z_1) + S$4*EXP(- R35 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>221.99327567293957</v>
+        <v>215.63535374096679</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" ref="U35:U40" ca="1" si="18" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * U34</f>
-        <v>32.425487543741028</v>
+        <v>17.726816633451534</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" ref="V35:V40" ca="1" si="19" xml:space="preserve"> V$2 + V$3*EXP(- U35 / TestData.Z_1) + V$4*EXP(- U35 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>205.49999203961903</v>
+        <v>247.19979352308843</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" ref="X35:X40" ca="1" si="20" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * X34</f>
-        <v>24.487993420210032</v>
+        <v>17.577592301190485</v>
       </c>
       <c r="Y35" s="1">
         <f t="shared" ref="Y35:Y40" ca="1" si="21" xml:space="preserve"> Y$2 + Y$3*EXP(- X35 / TestData.Z_1) + Y$4*EXP(- X35 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>241.49963034192837</v>
+        <v>259.79410702070408</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" ref="AA35:AA40" ca="1" si="22" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AA34</f>
-        <v>16.451679218891204</v>
+        <v>25.815655965929135</v>
       </c>
       <c r="AB35" s="1">
         <f t="shared" ref="AB35:AB40" ca="1" si="23" xml:space="preserve"> AB$2 + AB$3*EXP(- AA35 / TestData.Z_1) + AB$4*EXP(- AA35 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>222.34516133969288</v>
+        <v>212.67963354739453</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35:AD40" ca="1" si="24" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AD34</f>
-        <v>16.917767737017904</v>
+        <v>22.002404144599971</v>
       </c>
       <c r="AE35" s="1">
         <f t="shared" ref="AE35:AE40" ca="1" si="25" xml:space="preserve"> AE$2 + AE$3*EXP(- AD35 / TestData.Z_1) + AE$4*EXP(- AD35 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>254.08048584978886</v>
+        <v>199.64464411557736</v>
       </c>
       <c r="AG35" s="1">
         <f t="shared" ref="AG35:AG40" ca="1" si="26" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AG34</f>
-        <v>29.400776245278152</v>
+        <v>23.927555039889121</v>
       </c>
       <c r="AH35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>223.33644116505482</v>
+        <v>211.23951163714679</v>
       </c>
       <c r="AJ35" s="1" cm="1">
         <f t="array" ref="AJ35" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11388,59 +11389,59 @@
     <row r="36" spans="12:36" x14ac:dyDescent="0.2">
       <c r="O36" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>26.046687037420512</v>
+        <v>28.882540320653188</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>200.47929538840367</v>
+        <v>232.69517375925054</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>21.280278122906843</v>
+        <v>22.926439156529462</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>222.75935111227486</v>
+        <v>212.32648128117313</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>33.940042561045644</v>
+        <v>20.056240819849428</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>205.45793432639428</v>
+        <v>247.23218850523284</v>
       </c>
       <c r="X36" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>25.463763410713216</v>
+        <v>18.839541474873162</v>
       </c>
       <c r="Y36" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>240.70320003931619</v>
+        <v>259.26703590562602</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>17.713962110416059</v>
+        <v>27.00625705549492</v>
       </c>
       <c r="AB36" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>221.58648577957632</v>
+        <v>208.95731205619398</v>
       </c>
       <c r="AD36" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>19.971525376472925</v>
+        <v>25.685090984531978</v>
       </c>
       <c r="AE36" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>249.85160853385236</v>
+        <v>198.14470883253924</v>
       </c>
       <c r="AG36" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>34.448844570625432</v>
+        <v>26.731182427071587</v>
       </c>
       <c r="AH36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>219.64423355374387</v>
+        <v>205.72304793422038</v>
       </c>
       <c r="AJ36" s="1" cm="1">
         <f t="array" ref="AJ36" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11453,59 +11454,59 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>28.707968212806769</v>
+        <v>32.556860824779982</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>199.35639926279373</v>
+        <v>231.80618554643078</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>23.551852727429644</v>
+        <v>25.541420206232548</v>
       </c>
       <c r="S37" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>217.74361558405727</v>
+        <v>211.41425877311536</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>39.906271053099537</v>
+        <v>20.528143653249732</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>203.32371006115673</v>
+        <v>246.59912620307185</v>
       </c>
       <c r="X37" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>29.067277836788087</v>
+        <v>21.986160853607981</v>
       </c>
       <c r="Y37" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>236.93307066170402</v>
+        <v>255.942905862674</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>17.931928663941807</v>
+        <v>31.725251578194143</v>
       </c>
       <c r="AB37" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>221.14988064612322</v>
+        <v>208.47609194100755</v>
       </c>
       <c r="AD37" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>22.269958696102847</v>
+        <v>26.492052432940021</v>
       </c>
       <c r="AE37" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>246.87985465714817</v>
+        <v>196.31081495798662</v>
       </c>
       <c r="AG37" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>37.019182086345467</v>
+        <v>28.311774565442985</v>
       </c>
       <c r="AH37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>220.10279506265368</v>
+        <v>207.85116151552177</v>
       </c>
       <c r="AJ37" s="1" cm="1">
         <f t="array" ref="AJ37" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11525,63 +11526,63 @@
 IF(COUNT(TestData.05Y)&gt;0,  _xlfn.MINIFS(TestData.05Y,   TestData.05Y,"&lt;1E307"),  1E+307),
 IF(COUNT(TestData.06Y)&gt;0,  _xlfn.MINIFS(TestData.06Y,   TestData.06Y,"&lt;1E307"),  1E+307),
 IF(COUNT(TestData.07Y)&gt;0,  _xlfn.MINIFS(TestData.07Y,   TestData.07Y,"&lt;1E307"),  1E+307) )</f>
-        <v>164.68708362760685</v>
+        <v>149.72115258254127</v>
       </c>
       <c r="O38" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>33.464436105161838</v>
+        <v>33.46318981712664</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>195.15333682170703</v>
+        <v>230.90110953857851</v>
       </c>
       <c r="R38" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>27.669422655354438</v>
+        <v>26.603962892613865</v>
       </c>
       <c r="S38" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>215.50506587865456</v>
+        <v>211.52668042157472</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>44.28526729663038</v>
+        <v>20.993482975774477</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>200.2612600284626</v>
+        <v>244.52572324918486</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>34.138458692627452</v>
+        <v>23.540327221676371</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>233.24076723568882</v>
+        <v>253.06271759796059</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>20.306114870679593</v>
+        <v>33.637215797103757</v>
       </c>
       <c r="AB38" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>222.10311491453695</v>
+        <v>207.70665808978777</v>
       </c>
       <c r="AD38" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>23.377004638391682</v>
+        <v>28.617777688308752</v>
       </c>
       <c r="AE38" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>246.42360300587418</v>
+        <v>195.85383328613739</v>
       </c>
       <c r="AG38" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>41.527293261007358</v>
+        <v>31.833906832179938</v>
       </c>
       <c r="AH38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>216.03920998281305</v>
+        <v>201.5931121986622</v>
       </c>
       <c r="AJ38" s="1" cm="1">
         <f t="array" ref="AJ38" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11601,64 +11602,64 @@
 IF(COUNT(TestData.05Y)&gt;0, _xlfn.MAXIFS(TestData.05Y,   TestData.05Y,"&lt;1E307"),  -1E+307),
 IF(COUNT(TestData.06Y)&gt;0, _xlfn.MAXIFS(TestData.06Y,   TestData.06Y,"&lt;1E307"),  -1E+307),
 IF(COUNT(TestData.07Y)&gt;0, _xlfn.MAXIFS(TestData.07Y,   TestData.07Y,"&lt;1E307"),  -1E+307) )</f>
-        <v>257.36245232119938</v>
+        <v>266.41781525250678</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>39.064747082378922</v>
+        <v>37.876863053063289</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>192.22965775576282</v>
+        <v>227.26451893413531</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>30.676053234627144</v>
+        <v>27.159666213782323</v>
       </c>
       <c r="S39" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>212.03584638290607</v>
+        <v>209.08914584902931</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>50.924950222342744</v>
+        <v>24.652129983794719</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>197.2133965740525</v>
+        <v>244.12077379108962</v>
       </c>
       <c r="X39" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>39.680402839907522</v>
+        <v>24.977018972171717</v>
       </c>
       <c r="Y39" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>228.25873777989599</v>
+        <v>250.11716565618934</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>20.74238516675512</v>
+        <v>38.28413538846101</v>
       </c>
       <c r="AB39" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>221.53205082700896</v>
+        <v>202.9752211292554</v>
       </c>
       <c r="AD39" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>26.441906678644273</v>
+        <v>31.25971780382611</v>
       </c>
       <c r="AE39" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>244.13070710371014</v>
+        <v>194.30392395469647</v>
       </c>
       <c r="AG39" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>46.448854081409294</v>
+        <v>34.39345407546346</v>
       </c>
       <c r="AH39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>214.37409056296667</v>
+        <v>200.0423973723837</v>
       </c>
       <c r="AJ39" s="1" cm="1">
         <f t="array" ref="AJ39" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11675,59 +11676,59 @@
       </c>
       <c r="O40" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>41.397348683204598</v>
+        <v>40.712488868091675</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>188.18341981645668</v>
+        <v>224.85414484983067</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>32.147900075526444</v>
+        <v>28.53157213159248</v>
       </c>
       <c r="S40" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>211.56088560680769</v>
+        <v>208.87826614198462</v>
       </c>
       <c r="U40" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>54.885379460583721</v>
+        <v>27.574179676711466</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>196.73516459086676</v>
+        <v>243.02878229404143</v>
       </c>
       <c r="X40" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>46.264361355508406</v>
+        <v>27.706498926801039</v>
       </c>
       <c r="Y40" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>225.72446816473186</v>
+        <v>247.0706709428153</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>24.015422588935778</v>
+        <v>39.482196460947137</v>
       </c>
       <c r="AB40" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>218.89644374962504</v>
+        <v>203.5510992463459</v>
       </c>
       <c r="AD40" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>30.150756767755013</v>
+        <v>31.463718709236492</v>
       </c>
       <c r="AE40" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>238.68461493108848</v>
+        <v>193.7230030489379</v>
       </c>
       <c r="AG40" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>52.446532015951711</v>
+        <v>37.908916463548159</v>
       </c>
       <c r="AH40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>215.77619471112524</v>
+        <v>198.30461728895088</v>
       </c>
       <c r="AJ40" s="1" cm="1">
         <f t="array" ref="AJ40" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11744,59 +11745,59 @@
       </c>
       <c r="O41" s="1">
         <f t="shared" ref="O41" ca="1" si="27" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * O40</f>
-        <v>47.600339928714533</v>
+        <v>45.977394006857459</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" ref="P41" ca="1" si="28" xml:space="preserve"> P$2 + P$3*EXP(- O41 / TestData.Z_1) + P$4*EXP(- O41 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>186.06348130903584</v>
+        <v>222.38928107868247</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" ref="R41" ca="1" si="29" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * R40</f>
-        <v>36.550396279522879</v>
+        <v>32.624272147959282</v>
       </c>
       <c r="S41" s="1">
         <f t="shared" ref="S41" ca="1" si="30" xml:space="preserve"> S$2 + S$3*EXP(- R41 / TestData.Z_1) + S$4*EXP(- R41 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>204.5566254694933</v>
+        <v>204.3840784791507</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" ref="U41" ca="1" si="31" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * U40</f>
-        <v>58.387304791494145</v>
+        <v>29.739605371973024</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" ref="V41" ca="1" si="32" xml:space="preserve"> V$2 + V$3*EXP(- U41 / TestData.Z_1) + V$4*EXP(- U41 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>197.60567410871033</v>
+        <v>239.16010213741441</v>
       </c>
       <c r="X41" s="1">
         <f t="shared" ref="X41" ca="1" si="33" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * X40</f>
-        <v>52.482310910047502</v>
+        <v>32.234283487036457</v>
       </c>
       <c r="Y41" s="1">
         <f t="shared" ref="Y41" ca="1" si="34" xml:space="preserve"> Y$2 + Y$3*EXP(- X41 / TestData.Z_1) + Y$4*EXP(- X41 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>226.40642631463265</v>
+        <v>242.59110390209747</v>
       </c>
       <c r="AA41" s="1">
         <f t="shared" ref="AA41" ca="1" si="35" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AA40</f>
-        <v>25.480438527860304</v>
+        <v>45.244991055798742</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" ref="AB41" ca="1" si="36" xml:space="preserve"> AB$2 + AB$3*EXP(- AA41 / TestData.Z_1) + AB$4*EXP(- AA41 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>220.90079914526268</v>
+        <v>202.74327051601074</v>
       </c>
       <c r="AD41" s="1">
         <f t="shared" ref="AD41" ca="1" si="37" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AD40</f>
-        <v>30.980691008601497</v>
+        <v>35.555482969370679</v>
       </c>
       <c r="AE41" s="1">
         <f t="shared" ref="AE41" ca="1" si="38" xml:space="preserve"> AE$2 + AE$3*EXP(- AD41 / TestData.Z_1) + AE$4*EXP(- AD41 / TestData.Z_2)  + TestData.VerticalRandomisation*(2*RAND() - 1)</f>
-        <v>239.52165522390524</v>
+        <v>189.89926257831155</v>
       </c>
       <c r="AG41" s="1">
         <f t="shared" ref="AG41" ca="1" si="39" xml:space="preserve"> TestData.SpeedX  +  (1 + RAND()*TestData.SpeedX) * AG40</f>
-        <v>59.397907119433206</v>
+        <v>43.464078664892831</v>
       </c>
       <c r="AH41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>212.36110302046532</v>
+        <v>192.96356147343022</v>
       </c>
       <c r="AJ41" s="1" cm="1">
         <f t="array" ref="AJ41" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(TestData.RowNum))</f>
@@ -11819,7 +11820,7 @@
       </c>
       <c r="M43" s="1">
         <f ca="1" xml:space="preserve"> FLOOR(TestData.RawMinY, TestData.MajorY)</f>
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="12:36" x14ac:dyDescent="0.2">
@@ -11828,13 +11829,13 @@
       </c>
       <c r="M44" s="1">
         <f ca="1" xml:space="preserve"> CEILING(TestData.RawMaxY, TestData.MinorY)</f>
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="12:36" x14ac:dyDescent="0.2">
-      <c r="M45" s="1" cm="1">
+      <c r="M45" s="1" t="e" cm="1">
         <f t="array" aca="1" ref="M45" ca="1" xml:space="preserve"> axis_scale("Test", "Chart_Test", FALSE, TRUE, TestData.MinY, TestData.MaxY, TestData.MajorY, TestData.MinorY)</f>
-        <v>44928.770138888889</v>
+        <v>#NAME?</v>
       </c>
       <c r="N45" s="6" t="str">
         <f xml:space="preserve"> _xlfn.UNICHAR(10232) &amp; " "</f>
@@ -11856,8 +11857,8 @@
   <dimension ref="A2:AB371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11880,7 +11881,7 @@
       </c>
       <c r="C2" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="C2" ca="1" xml:space="preserve"> CHOOSE(2,   "C:\ChartMarkers\",   LEFT(CELL("filename"),  FIND("[",CELL("filename")) - 1) &amp; "ChartMarkers_Excel/")</f>
-        <v>/Users/JDAW/Documents/GitHub/chart_markers/ChartMarkers_Excel/</v>
+        <v>/Users/JDAW/Documents/GitHub/chart_markers/Spreadsheets/ChartMarkers_Excel/</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
@@ -15378,7 +15379,7 @@
         <v>88</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>423</v>
+        <v>571</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" ref="J70" si="323" xml:space="preserve"> IF(AND(LEN(ChartLines.ID)&gt;0,"Unused"&lt;&gt;ChartLines.ID), COUNTIFS(ChartLines.ID,ChartLines.ID), "·")</f>
@@ -15394,15 +15395,15 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ref="M70" si="325" xml:space="preserve"> IF(LEN(ChartLines.Hex6)=6, HEX2DEC(LEFT(ChartLines.Hex6, 2)), "·")</f>
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" ref="N70" si="326" xml:space="preserve"> IF(LEN(ChartLines.Hex6)=6, HEX2DEC(MID(ChartLines.Hex6, 3, 2)), "·")</f>
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="O70" s="1">
         <f t="shared" ref="O70" si="327" xml:space="preserve"> IF(LEN(ChartLines.Hex6)=6, HEX2DEC(RIGHT(ChartLines.Hex6, 2)), "·")</f>
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="P70" s="1" cm="1">
         <f t="array" ref="P70" xml:space="preserve"> 1 + ROW() - _xlfn.SINGLE(ROW(ChartLines.RowNum))</f>
